--- a/capiq_data/in_process_data/IQ658776.xlsx
+++ b/capiq_data/in_process_data/IQ658776.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7282C09E-105D-4090-9EF0-08E1E7EF534D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85239959-F86C-4C3B-A29C-C3816D361143}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"ae15ba18-a1ff-464e-a8e2-b65a1cef480c"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"1ab4b32e-566d-4668-bb2b-1a08f1fe62b7"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>4831</v>
+        <v>708</v>
       </c>
       <c r="D2">
-        <v>23055</v>
+        <v>8134</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23055</v>
+        <v>8134</v>
       </c>
       <c r="G2">
-        <v>965881</v>
+        <v>338087</v>
       </c>
       <c r="H2">
-        <v>2117605</v>
+        <v>715348</v>
       </c>
       <c r="I2">
-        <v>1005340</v>
+        <v>319602</v>
       </c>
       <c r="J2">
-        <v>348302</v>
+        <v>67078</v>
       </c>
       <c r="K2">
-        <v>415551</v>
+        <v>233106</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1593197</v>
+        <v>605382</v>
       </c>
       <c r="O2">
-        <v>1941499</v>
+        <v>672460</v>
       </c>
       <c r="P2">
-        <v>763853</v>
+        <v>300184</v>
       </c>
       <c r="Q2">
-        <v>3607</v>
+        <v>3688</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>239831</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>176106</v>
+        <v>42888</v>
       </c>
       <c r="U2">
-        <v>27016</v>
+        <v>93446</v>
       </c>
       <c r="V2">
-        <v>1111</v>
+        <v>3336</v>
       </c>
       <c r="W2">
-        <v>-484</v>
+        <v>-588</v>
       </c>
       <c r="X2">
-        <v>-30644</v>
+        <v>4432</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>29884</v>
+        <v>1099</v>
       </c>
       <c r="AA2">
-        <v>4831</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>5555</v>
+        <v>1199</v>
       </c>
       <c r="D3">
-        <v>24052</v>
+        <v>7878</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24052</v>
+        <v>7878</v>
       </c>
       <c r="G3">
-        <v>1034818</v>
+        <v>371401</v>
       </c>
       <c r="H3">
-        <v>2198161</v>
+        <v>713624</v>
       </c>
       <c r="I3">
-        <v>1162572</v>
+        <v>305864</v>
       </c>
       <c r="J3">
-        <v>340533</v>
+        <v>75764</v>
       </c>
       <c r="K3">
-        <v>433032</v>
+        <v>235296</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-27250</v>
+        <v>-5287</v>
       </c>
       <c r="N3">
-        <v>1675635</v>
+        <v>593944</v>
       </c>
       <c r="O3">
-        <v>2017563</v>
+        <v>669708</v>
       </c>
       <c r="P3">
-        <v>773565</v>
+        <v>311060</v>
       </c>
       <c r="Q3">
-        <v>-4098</v>
+        <v>-1601</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
-        <v>242929</v>
+        <v>98518</v>
       </c>
       <c r="T3">
-        <v>180598</v>
+        <v>43916</v>
       </c>
       <c r="U3">
-        <v>23837</v>
+        <v>93518</v>
       </c>
       <c r="V3">
-        <v>-5979</v>
+        <v>-10416</v>
       </c>
       <c r="W3">
-        <v>-246</v>
+        <v>-631</v>
       </c>
       <c r="X3">
-        <v>67328</v>
+        <v>7081</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-73877</v>
+        <v>3487</v>
       </c>
       <c r="AA3">
-        <v>5555</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>5431</v>
+        <v>378</v>
       </c>
       <c r="D4">
-        <v>24969</v>
+        <v>6424</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24969</v>
+        <v>6424</v>
       </c>
       <c r="G4">
-        <v>1083179</v>
+        <v>360970</v>
       </c>
       <c r="H4">
-        <v>2246764</v>
+        <v>712702</v>
       </c>
       <c r="I4">
-        <v>1228261</v>
+        <v>314676</v>
       </c>
       <c r="J4">
-        <v>346685</v>
+        <v>63774</v>
       </c>
       <c r="K4">
-        <v>402760</v>
+        <v>237420</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1716574</v>
+        <v>605952</v>
       </c>
       <c r="O4">
-        <v>2063885</v>
+        <v>669726</v>
       </c>
       <c r="P4">
-        <v>749445</v>
+        <v>301194</v>
       </c>
       <c r="Q4">
-        <v>6997</v>
+        <v>1848</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>97224</v>
       </c>
       <c r="T4">
-        <v>182879</v>
+        <v>42976</v>
       </c>
       <c r="U4">
-        <v>30754</v>
+        <v>85527</v>
       </c>
       <c r="V4">
-        <v>64704</v>
+        <v>-5092</v>
       </c>
       <c r="W4">
-        <v>-1319</v>
+        <v>-694</v>
       </c>
       <c r="X4">
-        <v>21997</v>
+        <v>4618</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-74739</v>
+        <v>-5338</v>
       </c>
       <c r="AA4">
-        <v>5431</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>4262</v>
+        <v>449</v>
       </c>
       <c r="D5">
-        <v>21352</v>
+        <v>6676</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21352</v>
+        <v>6676</v>
       </c>
       <c r="G5">
-        <v>1106920</v>
+        <v>379440</v>
       </c>
       <c r="H5">
-        <v>2289240</v>
+        <v>799300</v>
       </c>
       <c r="I5">
-        <v>1287498</v>
+        <v>356552</v>
       </c>
       <c r="J5">
-        <v>339659</v>
+        <v>68695</v>
       </c>
       <c r="K5">
-        <v>401825</v>
+        <v>271891</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1766608</v>
+        <v>687037</v>
       </c>
       <c r="O5">
-        <v>2106953</v>
+        <v>756015</v>
       </c>
       <c r="P5">
-        <v>741484</v>
+        <v>340586</v>
       </c>
       <c r="Q5">
-        <v>26300</v>
+        <v>-1920</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
-        <v>256663</v>
+        <v>96633</v>
       </c>
       <c r="T5">
-        <v>182287</v>
+        <v>43285</v>
       </c>
       <c r="U5">
-        <v>57608</v>
+        <v>101296</v>
       </c>
       <c r="V5">
-        <v>7793</v>
+        <v>-21215</v>
       </c>
       <c r="W5">
-        <v>-1061</v>
+        <v>-695</v>
       </c>
       <c r="X5">
-        <v>43040</v>
+        <v>34505</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>22614</v>
+        <v>7436</v>
       </c>
       <c r="AA5">
-        <v>4262</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>3728</v>
+        <v>-332</v>
       </c>
       <c r="D6">
-        <v>19287</v>
+        <v>5184</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19287</v>
+        <v>5184</v>
       </c>
       <c r="G6">
-        <v>1034587</v>
+        <v>357878</v>
       </c>
       <c r="H6">
-        <v>2265792</v>
+        <v>693575</v>
       </c>
       <c r="I6">
-        <v>1209348</v>
+        <v>341181</v>
       </c>
       <c r="J6">
-        <v>322752</v>
+        <v>54457</v>
       </c>
       <c r="K6">
-        <v>362048</v>
+        <v>203018</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1759467</v>
+        <v>597187</v>
       </c>
       <c r="O6">
-        <v>2082219</v>
+        <v>651926</v>
       </c>
       <c r="P6">
-        <v>684800</v>
+        <v>257475</v>
       </c>
       <c r="Q6">
-        <v>2836</v>
+        <v>301</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>260157</v>
+        <v>95812</v>
       </c>
       <c r="T6">
-        <v>183573</v>
+        <v>41649</v>
       </c>
       <c r="U6">
-        <v>55516</v>
+        <v>24808</v>
       </c>
       <c r="V6">
-        <v>29414</v>
+        <v>33616</v>
       </c>
       <c r="W6">
-        <v>-1269</v>
+        <v>-677</v>
       </c>
       <c r="X6">
-        <v>-24659</v>
+        <v>-56887</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>15588</v>
+        <v>1610</v>
       </c>
       <c r="AA6">
-        <v>3728</v>
+        <v>-332</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>4924</v>
+        <v>982</v>
       </c>
       <c r="D7">
-        <v>24226</v>
+        <v>6845</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24226</v>
+        <v>6845</v>
       </c>
       <c r="G7">
-        <v>1076705</v>
+        <v>331316</v>
       </c>
       <c r="H7">
-        <v>2320164</v>
+        <v>712508</v>
       </c>
       <c r="I7">
-        <v>1327699</v>
+        <v>318666</v>
       </c>
       <c r="J7">
-        <v>323581</v>
+        <v>59729</v>
       </c>
       <c r="K7">
-        <v>406641</v>
+        <v>221560</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-16713</v>
+        <v>-5720</v>
       </c>
       <c r="N7">
-        <v>1806564</v>
+        <v>611367</v>
       </c>
       <c r="O7">
-        <v>2130895</v>
+        <v>671377</v>
       </c>
       <c r="P7">
-        <v>730222</v>
+        <v>281289</v>
       </c>
       <c r="Q7">
-        <v>-4219</v>
+        <v>37</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
-        <v>261453</v>
+        <v>96938</v>
       </c>
       <c r="T7">
-        <v>189269</v>
+        <v>41131</v>
       </c>
       <c r="U7">
-        <v>55586</v>
+        <v>99356</v>
       </c>
       <c r="V7">
-        <v>4266</v>
+        <v>-12558</v>
       </c>
       <c r="W7">
-        <v>-1024</v>
+        <v>-684</v>
       </c>
       <c r="X7">
-        <v>35352</v>
+        <v>22246</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-40866</v>
+        <v>853</v>
       </c>
       <c r="AA7">
-        <v>4924</v>
+        <v>982</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>4960</v>
+        <v>1028</v>
       </c>
       <c r="D8">
-        <v>21966</v>
+        <v>6753</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21966</v>
+        <v>6753</v>
       </c>
       <c r="G8">
-        <v>1058695</v>
+        <v>362220</v>
       </c>
       <c r="H8">
-        <v>2290146</v>
+        <v>740546</v>
       </c>
       <c r="I8">
-        <v>1318250</v>
+        <v>331631</v>
       </c>
       <c r="J8">
-        <v>294592</v>
+        <v>65154</v>
       </c>
       <c r="K8">
-        <v>413451</v>
+        <v>232792</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1803218</v>
+        <v>632375</v>
       </c>
       <c r="O8">
-        <v>2098574</v>
+        <v>697810</v>
       </c>
       <c r="P8">
-        <v>708043</v>
+        <v>297946</v>
       </c>
       <c r="Q8">
-        <v>-10517</v>
+        <v>-759</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
-        <v>262882</v>
+        <v>95878</v>
       </c>
       <c r="T8">
-        <v>191572</v>
+        <v>42736</v>
       </c>
       <c r="U8">
-        <v>45134</v>
+        <v>93618</v>
       </c>
       <c r="V8">
-        <v>41983</v>
+        <v>-20795</v>
       </c>
       <c r="W8">
-        <v>-1469</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-30485</v>
+        <v>16605</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>9353</v>
+        <v>-1360</v>
       </c>
       <c r="AA8">
-        <v>4960</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>5708</v>
+        <v>40</v>
       </c>
       <c r="D9">
-        <v>22469</v>
+        <v>5111</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22469</v>
+        <v>5111</v>
       </c>
       <c r="G9">
-        <v>1089596</v>
+        <v>402599</v>
       </c>
       <c r="H9">
-        <v>2321284</v>
+        <v>741759</v>
       </c>
       <c r="I9">
-        <v>1338122</v>
+        <v>329831</v>
       </c>
       <c r="J9">
-        <v>299058</v>
+        <v>57198</v>
       </c>
       <c r="K9">
-        <v>411508</v>
+        <v>239113</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1821781</v>
+        <v>640551</v>
       </c>
       <c r="O9">
-        <v>2121591</v>
+        <v>698322</v>
       </c>
       <c r="P9">
-        <v>710566</v>
+        <v>296311</v>
       </c>
       <c r="Q9">
-        <v>8477</v>
+        <v>-3719</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
-        <v>259547</v>
+        <v>95637</v>
       </c>
       <c r="T9">
-        <v>199693</v>
+        <v>43437</v>
       </c>
       <c r="U9">
-        <v>53649</v>
+        <v>81907</v>
       </c>
       <c r="V9">
-        <v>-16659</v>
+        <v>25093</v>
       </c>
       <c r="W9">
-        <v>-1223</v>
+        <v>-712</v>
       </c>
       <c r="X9">
-        <v>28754</v>
+        <v>-21465</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>21083</v>
+        <v>-15990</v>
       </c>
       <c r="AA9">
-        <v>5708</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>5692</v>
+        <v>-387</v>
       </c>
       <c r="D10">
-        <v>22997</v>
+        <v>6574</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22997</v>
+        <v>6574</v>
       </c>
       <c r="G10">
-        <v>1109684</v>
+        <v>415740</v>
       </c>
       <c r="H10">
-        <v>2359141</v>
+        <v>758800</v>
       </c>
       <c r="I10">
-        <v>1273535</v>
+        <v>342781</v>
       </c>
       <c r="J10">
-        <v>312215</v>
+        <v>54136</v>
       </c>
       <c r="K10">
-        <v>399662</v>
+        <v>252301</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1842857</v>
+        <v>662358</v>
       </c>
       <c r="O10">
-        <v>2155072</v>
+        <v>716494</v>
       </c>
       <c r="P10">
-        <v>711877</v>
+        <v>306437</v>
       </c>
       <c r="Q10">
-        <v>380</v>
+        <v>1059</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>258965</v>
+        <v>94335</v>
       </c>
       <c r="T10">
-        <v>204069</v>
+        <v>42306</v>
       </c>
       <c r="U10">
-        <v>49006</v>
+        <v>27382</v>
       </c>
       <c r="V10">
-        <v>-4511</v>
+        <v>-16874</v>
       </c>
       <c r="W10">
-        <v>-1478</v>
+        <v>-698</v>
       </c>
       <c r="X10">
-        <v>54086</v>
+        <v>27257</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-21201</v>
+        <v>275</v>
       </c>
       <c r="AA10">
-        <v>5692</v>
+        <v>-387</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>6529</v>
+        <v>1400</v>
       </c>
       <c r="D11">
-        <v>24505</v>
+        <v>7663</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24505</v>
+        <v>7663</v>
       </c>
       <c r="G11">
-        <v>1148009</v>
+        <v>372461</v>
       </c>
       <c r="H11">
-        <v>2389349</v>
+        <v>755156</v>
       </c>
       <c r="I11">
-        <v>1391566</v>
+        <v>347007</v>
       </c>
       <c r="J11">
-        <v>326661</v>
+        <v>61138</v>
       </c>
       <c r="K11">
-        <v>398943</v>
+        <v>239064</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-9262</v>
       </c>
       <c r="M11">
-        <v>-18993</v>
+        <v>-3873</v>
       </c>
       <c r="N11">
-        <v>1854886</v>
+        <v>650498</v>
       </c>
       <c r="O11">
-        <v>2182263</v>
+        <v>712072</v>
       </c>
       <c r="P11">
-        <v>725604</v>
+        <v>300202</v>
       </c>
       <c r="Q11">
-        <v>-8199</v>
+        <v>3011</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
-        <v>255898</v>
+        <v>93878</v>
       </c>
       <c r="T11">
-        <v>207086</v>
+        <v>43084</v>
       </c>
       <c r="U11">
-        <v>45841</v>
+        <v>28272</v>
       </c>
       <c r="V11">
-        <v>19964</v>
+        <v>17838</v>
       </c>
       <c r="W11">
-        <v>-1242</v>
+        <v>-696</v>
       </c>
       <c r="X11">
-        <v>28180</v>
+        <v>-9545</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-135668</v>
+        <v>-218</v>
       </c>
       <c r="AA11">
-        <v>6529</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>6496</v>
+        <v>1827</v>
       </c>
       <c r="D12">
-        <v>25164</v>
+        <v>8657</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>25164</v>
+        <v>8657</v>
       </c>
       <c r="G12">
-        <v>1199230</v>
+        <v>382675</v>
       </c>
       <c r="H12">
-        <v>2439494</v>
+        <v>802603</v>
       </c>
       <c r="I12">
-        <v>1410517</v>
+        <v>381936</v>
       </c>
       <c r="J12">
-        <v>321302</v>
+        <v>54600</v>
       </c>
       <c r="K12">
-        <v>412839</v>
+        <v>240543</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1908200</v>
+        <v>702798</v>
       </c>
       <c r="O12">
-        <v>2230255</v>
+        <v>757782</v>
       </c>
       <c r="P12">
-        <v>734141</v>
+        <v>302637</v>
       </c>
       <c r="Q12">
-        <v>-16310</v>
+        <v>1169</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>209239</v>
+        <v>44821</v>
       </c>
       <c r="U12">
-        <v>30105</v>
+        <v>24732</v>
       </c>
       <c r="V12">
-        <v>68520</v>
+        <v>446</v>
       </c>
       <c r="W12">
-        <v>-1485</v>
+        <v>-726</v>
       </c>
       <c r="X12">
-        <v>1928</v>
+        <v>11417</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-50442</v>
+        <v>20</v>
       </c>
       <c r="AA12">
-        <v>6496</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>-380</v>
+        <v>1628</v>
       </c>
       <c r="D13">
-        <v>23660</v>
+        <v>7557</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23660</v>
+        <v>7557</v>
       </c>
       <c r="G13">
-        <v>1215796</v>
+        <v>399751</v>
       </c>
       <c r="H13">
-        <v>2463309</v>
+        <v>792700</v>
       </c>
       <c r="I13">
-        <v>1489917</v>
+        <v>367630</v>
       </c>
       <c r="J13">
-        <v>312230</v>
+        <v>50919</v>
       </c>
       <c r="K13">
-        <v>365872</v>
+        <v>165148</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1943732</v>
+        <v>696495</v>
       </c>
       <c r="O13">
-        <v>2256639</v>
+        <v>747743</v>
       </c>
       <c r="P13">
-        <v>678102</v>
+        <v>223983</v>
       </c>
       <c r="Q13">
-        <v>1450</v>
+        <v>-4813</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>255041</v>
+        <v>92940</v>
       </c>
       <c r="T13">
-        <v>206670</v>
+        <v>44957</v>
       </c>
       <c r="U13">
-        <v>31105</v>
+        <v>22075</v>
       </c>
       <c r="V13">
-        <v>26383</v>
+        <v>19898</v>
       </c>
       <c r="W13">
-        <v>-1547</v>
+        <v>-714</v>
       </c>
       <c r="X13">
-        <v>21135</v>
+        <v>-26171</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-57938</v>
+        <v>18228</v>
       </c>
       <c r="AA13">
-        <v>-380</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>5278</v>
+        <v>1864</v>
       </c>
       <c r="D14">
-        <v>23052</v>
+        <v>7967</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>23052</v>
+        <v>7967</v>
       </c>
       <c r="G14">
-        <v>1169153</v>
+        <v>440140</v>
       </c>
       <c r="H14">
-        <v>2415689</v>
+        <v>770912</v>
       </c>
       <c r="I14">
-        <v>1360065</v>
+        <v>371180</v>
       </c>
       <c r="J14">
-        <v>317506</v>
+        <v>76002</v>
       </c>
       <c r="K14">
-        <v>330119</v>
+        <v>198976</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1887005</v>
+        <v>648432</v>
       </c>
       <c r="O14">
-        <v>2204511</v>
+        <v>724758</v>
       </c>
       <c r="P14">
-        <v>647625</v>
+        <v>274978</v>
       </c>
       <c r="Q14">
-        <v>9107</v>
+        <v>1683</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>251196</v>
+        <v>93453</v>
       </c>
       <c r="T14">
-        <v>211178</v>
+        <v>46154</v>
       </c>
       <c r="U14">
-        <v>34902</v>
+        <v>34335</v>
       </c>
       <c r="V14">
-        <v>-6914</v>
+        <v>-23581</v>
       </c>
       <c r="W14">
-        <v>-1782</v>
+        <v>-729</v>
       </c>
       <c r="X14">
-        <v>-22919</v>
+        <v>-1952</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>58337</v>
+        <v>5390</v>
       </c>
       <c r="AA14">
-        <v>5278</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>5269</v>
+        <v>1930</v>
       </c>
       <c r="D15">
-        <v>22365</v>
+        <v>8996</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22365</v>
+        <v>8996</v>
       </c>
       <c r="G15">
-        <v>1243974</v>
+        <v>465147</v>
       </c>
       <c r="H15">
-        <v>2476986</v>
+        <v>801078</v>
       </c>
       <c r="I15">
-        <v>1483733</v>
+        <v>380245</v>
       </c>
       <c r="J15">
-        <v>321300</v>
+        <v>67208</v>
       </c>
       <c r="K15">
-        <v>359356</v>
+        <v>171041</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-20246</v>
+        <v>-2805</v>
       </c>
       <c r="N15">
-        <v>1935393</v>
+        <v>685472</v>
       </c>
       <c r="O15">
-        <v>2257331</v>
+        <v>752977</v>
       </c>
       <c r="P15">
-        <v>680656</v>
+        <v>238249</v>
       </c>
       <c r="Q15">
-        <v>-13450</v>
+        <v>-849</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
-        <v>246994</v>
+        <v>93285</v>
       </c>
       <c r="T15">
-        <v>219655</v>
+        <v>48101</v>
       </c>
       <c r="U15">
-        <v>26748</v>
+        <v>42024</v>
       </c>
       <c r="V15">
-        <v>14667</v>
+        <v>-37059</v>
       </c>
       <c r="W15">
-        <v>-1554</v>
+        <v>-720</v>
       </c>
       <c r="X15">
-        <v>40318</v>
+        <v>78084</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-51874</v>
+        <v>-35536</v>
       </c>
       <c r="AA15">
-        <v>5269</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>5980</v>
+        <v>-548</v>
       </c>
       <c r="D16">
-        <v>23986</v>
+        <v>8428</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23986</v>
+        <v>8428</v>
       </c>
       <c r="G16">
-        <v>1262460</v>
+        <v>480528</v>
       </c>
       <c r="H16">
-        <v>2520336</v>
+        <v>817763</v>
       </c>
       <c r="I16">
-        <v>1516436</v>
+        <v>402855</v>
       </c>
       <c r="J16">
-        <v>315652</v>
+        <v>59748</v>
       </c>
       <c r="K16">
-        <v>371573</v>
+        <v>174481</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1976722</v>
+        <v>711814</v>
       </c>
       <c r="O16">
-        <v>2293022</v>
+        <v>771822</v>
       </c>
       <c r="P16">
-        <v>687225</v>
+        <v>243531</v>
       </c>
       <c r="Q16">
-        <v>1202</v>
+        <v>4106</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
-        <v>245192</v>
+        <v>91008</v>
       </c>
       <c r="T16">
-        <v>227314</v>
+        <v>45941</v>
       </c>
       <c r="U16">
-        <v>27850</v>
+        <v>34449</v>
       </c>
       <c r="V16">
-        <v>-4371</v>
+        <v>24200</v>
       </c>
       <c r="W16">
-        <v>-1806</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>35118</v>
+        <v>10003</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-28632</v>
+        <v>-2</v>
       </c>
       <c r="AA16">
-        <v>5980</v>
+        <v>-548</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>5565</v>
+        <v>1418</v>
       </c>
       <c r="D17">
-        <v>23712</v>
+        <v>11336</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23712</v>
+        <v>11336</v>
       </c>
       <c r="G17">
-        <v>1265200</v>
+        <v>553576</v>
       </c>
       <c r="H17">
-        <v>2527005</v>
+        <v>1138469</v>
       </c>
       <c r="I17">
-        <v>1544151</v>
+        <v>557111</v>
       </c>
       <c r="J17">
-        <v>316285</v>
+        <v>112953</v>
       </c>
       <c r="K17">
-        <v>349549</v>
+        <v>223460</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1978806</v>
+        <v>911645</v>
       </c>
       <c r="O17">
-        <v>2295728</v>
+        <v>1032616</v>
       </c>
       <c r="P17">
-        <v>665834</v>
+        <v>336413</v>
       </c>
       <c r="Q17">
-        <v>-2151</v>
+        <v>7290</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
-        <v>242388</v>
+        <v>162275</v>
       </c>
       <c r="T17">
-        <v>231277</v>
+        <v>105853</v>
       </c>
       <c r="U17">
-        <v>25674</v>
+        <v>48900</v>
       </c>
       <c r="V17">
-        <v>-2449</v>
+        <v>-28334</v>
       </c>
       <c r="W17">
-        <v>-1718</v>
+        <v>-1237</v>
       </c>
       <c r="X17">
-        <v>-1375</v>
+        <v>-17681</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-31903</v>
+        <v>28333</v>
       </c>
       <c r="AA17">
-        <v>5565</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>4931</v>
+        <v>1666</v>
       </c>
       <c r="D18">
-        <v>21910</v>
+        <v>11793</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21910</v>
+        <v>11793</v>
       </c>
       <c r="G18">
-        <v>1316406</v>
+        <v>572075</v>
       </c>
       <c r="H18">
-        <v>2572274</v>
+        <v>1157248</v>
       </c>
       <c r="I18">
-        <v>1431799</v>
+        <v>596629</v>
       </c>
       <c r="J18">
-        <v>328699</v>
+        <v>162818</v>
       </c>
       <c r="K18">
-        <v>363883</v>
+        <v>203657</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2011848</v>
+        <v>888228</v>
       </c>
       <c r="O18">
-        <v>2340547</v>
+        <v>1051595</v>
       </c>
       <c r="P18">
-        <v>692582</v>
+        <v>366475</v>
       </c>
       <c r="Q18">
-        <v>2459</v>
+        <v>4353</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>241359</v>
+        <v>160968</v>
       </c>
       <c r="T18">
-        <v>231727</v>
+        <v>105653</v>
       </c>
       <c r="U18">
-        <v>18013</v>
+        <v>42446</v>
       </c>
       <c r="V18">
-        <v>28746</v>
+        <v>26046</v>
       </c>
       <c r="W18">
-        <v>-1912</v>
+        <v>-1236</v>
       </c>
       <c r="X18">
-        <v>44167</v>
+        <v>-10810</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-54622</v>
+        <v>9061</v>
       </c>
       <c r="AA18">
-        <v>4931</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>5914</v>
+        <v>2264</v>
       </c>
       <c r="D19">
-        <v>23107</v>
+        <v>13026</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23107</v>
+        <v>13026</v>
       </c>
       <c r="G19">
-        <v>1332285</v>
+        <v>603465</v>
       </c>
       <c r="H19">
-        <v>2577148</v>
+        <v>1178305</v>
       </c>
       <c r="I19">
-        <v>1561281</v>
+        <v>603074</v>
       </c>
       <c r="J19">
-        <v>331699</v>
+        <v>165562</v>
       </c>
       <c r="K19">
-        <v>360804</v>
+        <v>150125</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-34578</v>
+        <v>-9903</v>
       </c>
       <c r="N19">
-        <v>2007292</v>
+        <v>907403</v>
       </c>
       <c r="O19">
-        <v>2341284</v>
+        <v>1072965</v>
       </c>
       <c r="P19">
-        <v>692503</v>
+        <v>315687</v>
       </c>
       <c r="Q19">
-        <v>-5010</v>
+        <v>2425</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
-        <v>241145</v>
+        <v>164381</v>
       </c>
       <c r="T19">
-        <v>235864</v>
+        <v>105340</v>
       </c>
       <c r="U19">
-        <v>23201</v>
+        <v>53129</v>
       </c>
       <c r="V19">
-        <v>14879</v>
+        <v>-11586</v>
       </c>
       <c r="W19">
-        <v>-1770</v>
+        <v>-1227</v>
       </c>
       <c r="X19">
-        <v>4337</v>
+        <v>20743</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-11519</v>
+        <v>24866</v>
       </c>
       <c r="AA19">
-        <v>5914</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>6290</v>
+        <v>994</v>
       </c>
       <c r="D20">
-        <v>22877</v>
+        <v>11961</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22877</v>
+        <v>11961</v>
       </c>
       <c r="G20">
-        <v>1191708</v>
+        <v>607364</v>
       </c>
       <c r="H20">
-        <v>2449599</v>
+        <v>1171283</v>
       </c>
       <c r="I20">
-        <v>1470909</v>
+        <v>611265</v>
       </c>
       <c r="J20">
-        <v>336695</v>
+        <v>169722</v>
       </c>
       <c r="K20">
-        <v>317322</v>
+        <v>150192</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1869379</v>
+        <v>895737</v>
       </c>
       <c r="O20">
-        <v>2208394</v>
+        <v>1065898</v>
       </c>
       <c r="P20">
-        <v>654017</v>
+        <v>319914</v>
       </c>
       <c r="Q20">
-        <v>1274</v>
+        <v>-2501</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
-        <v>237459</v>
+        <v>168461</v>
       </c>
       <c r="T20">
-        <v>241205</v>
+        <v>105385</v>
       </c>
       <c r="U20">
-        <v>24876</v>
+        <v>36452</v>
       </c>
       <c r="V20">
-        <v>17296</v>
+        <v>-26557</v>
       </c>
       <c r="W20">
-        <v>-1964</v>
+        <v>-1222</v>
       </c>
       <c r="X20">
-        <v>-117766</v>
+        <v>11283</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>119328</v>
+        <v>18292</v>
       </c>
       <c r="AA20">
-        <v>6290</v>
+        <v>994</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>6804</v>
+        <v>2527</v>
       </c>
       <c r="D21">
-        <v>22098</v>
+        <v>13020</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22098</v>
+        <v>13020</v>
       </c>
       <c r="G21">
-        <v>1144018</v>
+        <v>632612</v>
       </c>
       <c r="H21">
-        <v>2417121</v>
+        <v>1203033</v>
       </c>
       <c r="I21">
-        <v>1451882</v>
+        <v>609426</v>
       </c>
       <c r="J21">
-        <v>341678</v>
+        <v>175015</v>
       </c>
       <c r="K21">
-        <v>290089</v>
+        <v>159570</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1827080</v>
+        <v>921488</v>
       </c>
       <c r="O21">
-        <v>2171393</v>
+        <v>1096898</v>
       </c>
       <c r="P21">
-        <v>631767</v>
+        <v>334585</v>
       </c>
       <c r="Q21">
-        <v>-2837</v>
+        <v>-2056</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
-        <v>235678</v>
+        <v>168955</v>
       </c>
       <c r="T21">
-        <v>245728</v>
+        <v>106135</v>
       </c>
       <c r="U21">
-        <v>22371</v>
+        <v>38503</v>
       </c>
       <c r="V21">
-        <v>25124</v>
+        <v>-2814</v>
       </c>
       <c r="W21">
-        <v>-1944</v>
+        <v>-1220</v>
       </c>
       <c r="X21">
-        <v>-30084</v>
+        <v>10403</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>32882</v>
+        <v>-16109</v>
       </c>
       <c r="AA21">
-        <v>6804</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>5434</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>21120</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21120</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1064499</v>
+        <v>651851</v>
       </c>
       <c r="H22">
-        <v>2351698</v>
+        <v>1198942</v>
       </c>
       <c r="I22">
-        <v>1345321</v>
+        <v>633001</v>
       </c>
       <c r="J22">
-        <v>330530</v>
+        <v>172562</v>
       </c>
       <c r="K22">
-        <v>246535</v>
+        <v>191561</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1773595</v>
+        <v>918769</v>
       </c>
       <c r="O22">
-        <v>2104125</v>
+        <v>1091731</v>
       </c>
       <c r="P22">
-        <v>577065</v>
+        <v>364123</v>
       </c>
       <c r="Q22">
-        <v>-768</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>234598</v>
+        <v>168847</v>
       </c>
       <c r="T22">
-        <v>247573</v>
+        <v>107211</v>
       </c>
       <c r="U22">
-        <v>6775</v>
+        <v>41081</v>
       </c>
       <c r="V22">
-        <v>16167</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>-2195</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-43998</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>49754</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>5434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>5520</v>
+        <v>3081</v>
       </c>
       <c r="D23">
-        <v>21415</v>
+        <v>14344</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21415</v>
+        <v>14344</v>
       </c>
       <c r="G23">
-        <v>1113628</v>
+        <v>691394</v>
       </c>
       <c r="H23">
-        <v>2423808</v>
+        <v>1273282</v>
       </c>
       <c r="I23">
-        <v>1494150</v>
+        <v>657774</v>
       </c>
       <c r="J23">
-        <v>329427</v>
+        <v>179750</v>
       </c>
       <c r="K23">
-        <v>262111</v>
+        <v>222877</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-19304</v>
+        <v>-9316</v>
       </c>
       <c r="N23">
-        <v>1844224</v>
+        <v>984811</v>
       </c>
       <c r="O23">
-        <v>2173651</v>
+        <v>1164945</v>
       </c>
       <c r="P23">
-        <v>591538</v>
+        <v>402627</v>
       </c>
       <c r="Q23">
-        <v>-2278</v>
+        <v>233</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
-        <v>237420</v>
+        <v>170787</v>
       </c>
       <c r="T23">
-        <v>250157</v>
+        <v>108337</v>
       </c>
       <c r="U23">
-        <v>18315</v>
+        <v>43547</v>
       </c>
       <c r="V23">
-        <v>-21383</v>
+        <v>-19141</v>
       </c>
       <c r="W23">
-        <v>-1946</v>
+        <v>-1215</v>
       </c>
       <c r="X23">
-        <v>53584</v>
+        <v>53821</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-11101</v>
+        <v>-8696</v>
       </c>
       <c r="AA23">
-        <v>5520</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>6200</v>
+        <v>3540</v>
       </c>
       <c r="D24">
-        <v>22978</v>
+        <v>14593</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22978</v>
+        <v>14593</v>
       </c>
       <c r="G24">
-        <v>1141678</v>
+        <v>709559</v>
       </c>
       <c r="H24">
-        <v>2466096</v>
+        <v>1328001</v>
       </c>
       <c r="I24">
-        <v>1510993</v>
+        <v>675861</v>
       </c>
       <c r="J24">
-        <v>335854</v>
+        <v>162460</v>
       </c>
       <c r="K24">
-        <v>265632</v>
+        <v>193609</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1877819</v>
+        <v>1027545</v>
       </c>
       <c r="O24">
-        <v>2213673</v>
+        <v>1217317</v>
       </c>
       <c r="P24">
-        <v>601486</v>
+        <v>356069</v>
       </c>
       <c r="Q24">
-        <v>1498</v>
+        <v>1487</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
-        <v>240046</v>
+        <v>172423</v>
       </c>
       <c r="T24">
-        <v>252423</v>
+        <v>110684</v>
       </c>
       <c r="U24">
-        <v>19826</v>
+        <v>39729</v>
       </c>
       <c r="V24">
-        <v>-1524</v>
+        <v>-34599</v>
       </c>
       <c r="W24">
-        <v>-2174</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>20575</v>
+        <v>75619</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>21732</v>
+        <v>-17204</v>
       </c>
       <c r="AA24">
-        <v>6200</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>6286</v>
+        <v>3297</v>
       </c>
       <c r="D25">
-        <v>23402</v>
+        <v>14733</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23402</v>
+        <v>14733</v>
       </c>
       <c r="G25">
-        <v>1201984</v>
+        <v>705939</v>
       </c>
       <c r="H25">
-        <v>2521029</v>
+        <v>1338029</v>
       </c>
       <c r="I25">
-        <v>1557312</v>
+        <v>655232</v>
       </c>
       <c r="J25">
-        <v>351651</v>
+        <v>172434</v>
       </c>
       <c r="K25">
-        <v>260771</v>
+        <v>206530</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1913209</v>
+        <v>1051566</v>
       </c>
       <c r="O25">
-        <v>2266698</v>
+        <v>1224468</v>
       </c>
       <c r="P25">
-        <v>612422</v>
+        <v>378964</v>
       </c>
       <c r="Q25">
-        <v>1680</v>
+        <v>-2111</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
-        <v>242315</v>
+        <v>171589</v>
       </c>
       <c r="T25">
-        <v>254331</v>
+        <v>113561</v>
       </c>
       <c r="U25">
-        <v>21465</v>
+        <v>51529</v>
       </c>
       <c r="V25">
-        <v>4192</v>
+        <v>18677</v>
       </c>
       <c r="W25">
-        <v>-2069</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>57540</v>
+        <v>10686</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-44652</v>
+        <v>-16575</v>
       </c>
       <c r="AA25">
-        <v>6286</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>6727</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>22512</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>22512</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1143554</v>
+        <v>712279</v>
       </c>
       <c r="H26">
-        <v>2490972</v>
+        <v>1351520</v>
       </c>
       <c r="I26">
-        <v>1442960</v>
+        <v>725764</v>
       </c>
       <c r="J26">
-        <v>334292</v>
+        <v>179867</v>
       </c>
       <c r="K26">
-        <v>258460</v>
+        <v>238491</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1902490</v>
+        <v>1054743</v>
       </c>
       <c r="O26">
-        <v>2236782</v>
+        <v>1235730</v>
       </c>
       <c r="P26">
-        <v>592752</v>
+        <v>418358</v>
       </c>
       <c r="Q26">
-        <v>2483</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>243355</v>
+        <v>174360</v>
       </c>
       <c r="T26">
-        <v>254190</v>
+        <v>115790</v>
       </c>
       <c r="U26">
-        <v>4637</v>
+        <v>58457</v>
       </c>
       <c r="V26">
-        <v>38911</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>-2287</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-33428</v>
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>4932</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>6727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>6448</v>
+        <v>4787</v>
       </c>
       <c r="D27">
-        <v>23624</v>
+        <v>17960</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>23624</v>
+        <v>17960</v>
       </c>
       <c r="G27">
-        <v>1195778</v>
+        <v>767278</v>
       </c>
       <c r="H27">
-        <v>2546290</v>
+        <v>1408918</v>
       </c>
       <c r="I27">
-        <v>1594222</v>
+        <v>713478</v>
       </c>
       <c r="J27">
-        <v>326174</v>
+        <v>175178</v>
       </c>
       <c r="K27">
-        <v>278041</v>
+        <v>257380</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-26049</v>
+        <v>-14880</v>
       </c>
       <c r="N27">
-        <v>1963176</v>
+        <v>1115483</v>
       </c>
       <c r="O27">
-        <v>2290427</v>
+        <v>1291214</v>
       </c>
       <c r="P27">
-        <v>604215</v>
+        <v>432558</v>
       </c>
       <c r="Q27">
-        <v>70732</v>
+        <v>-8576</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
-        <v>246345</v>
+        <v>176314</v>
       </c>
       <c r="T27">
-        <v>255863</v>
+        <v>117704</v>
       </c>
       <c r="U27">
-        <v>20568</v>
+        <v>44076</v>
       </c>
       <c r="V27">
-        <v>-22559</v>
+        <v>-51518</v>
       </c>
       <c r="W27">
-        <v>-2045</v>
+        <v>-1207</v>
       </c>
       <c r="X27">
-        <v>43605</v>
+        <v>54743</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>8050</v>
+        <v>-22840</v>
       </c>
       <c r="AA27">
-        <v>6448</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>7029</v>
+        <v>4234</v>
       </c>
       <c r="D28">
-        <v>23871</v>
+        <v>17379</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>23871</v>
+        <v>17379</v>
       </c>
       <c r="G28">
-        <v>1216759</v>
+        <v>787424</v>
       </c>
       <c r="H28">
-        <v>2563174</v>
+        <v>1458042</v>
       </c>
       <c r="I28">
-        <v>1616016</v>
+        <v>735389</v>
       </c>
       <c r="J28">
-        <v>323871</v>
+        <v>216234</v>
       </c>
       <c r="K28">
-        <v>272059</v>
+        <v>231077</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1979703</v>
+        <v>1121831</v>
       </c>
       <c r="O28">
-        <v>2304691</v>
+        <v>1338831</v>
       </c>
       <c r="P28">
-        <v>595930</v>
+        <v>447311</v>
       </c>
       <c r="Q28">
-        <v>-11360</v>
+        <v>3613</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>179664</v>
       </c>
       <c r="T28">
-        <v>258483</v>
+        <v>119211</v>
       </c>
       <c r="U28">
-        <v>22003</v>
+        <v>41326</v>
       </c>
       <c r="V28">
-        <v>4073</v>
+        <v>-14838</v>
       </c>
       <c r="W28">
-        <v>-2341</v>
+        <v>-1197</v>
       </c>
       <c r="X28">
-        <v>4306</v>
+        <v>34836</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>21079</v>
+        <v>-11125</v>
       </c>
       <c r="AA28">
-        <v>7029</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>6732</v>
+        <v>3373</v>
       </c>
       <c r="D29">
-        <v>24126</v>
+        <v>14327</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>24126</v>
+        <v>14327</v>
       </c>
       <c r="G29">
-        <v>1230266</v>
+        <v>760363</v>
       </c>
       <c r="H29">
-        <v>2563074</v>
+        <v>1479575</v>
       </c>
       <c r="I29">
-        <v>1621770</v>
+        <v>763757</v>
       </c>
       <c r="J29">
-        <v>317006</v>
+        <v>233063</v>
       </c>
       <c r="K29">
-        <v>275306</v>
+        <v>212745</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1986165</v>
+        <v>1125676</v>
       </c>
       <c r="O29">
-        <v>2304692</v>
+        <v>1359597</v>
       </c>
       <c r="P29">
-        <v>592312</v>
+        <v>445808</v>
       </c>
       <c r="Q29">
-        <v>8630</v>
+        <v>-2683</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
-        <v>251503</v>
+        <v>179847</v>
       </c>
       <c r="T29">
-        <v>258382</v>
+        <v>119978</v>
       </c>
       <c r="U29">
-        <v>22071</v>
+        <v>35118</v>
       </c>
       <c r="V29">
-        <v>-4895</v>
+        <v>-14957</v>
       </c>
       <c r="W29">
-        <v>-2092</v>
+        <v>-1331</v>
       </c>
       <c r="X29">
-        <v>-11506</v>
+        <v>25102</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>1244</v>
+        <v>19395</v>
       </c>
       <c r="AA29">
-        <v>6732</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>4232</v>
+        <v>2971</v>
       </c>
       <c r="D30">
-        <v>23124</v>
+        <v>17542</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>23124</v>
+        <v>17542</v>
       </c>
       <c r="G30">
-        <v>1161287</v>
+        <v>847184</v>
       </c>
       <c r="H30">
-        <v>2533600</v>
+        <v>1562147</v>
       </c>
       <c r="I30">
-        <v>1516530</v>
+        <v>780513</v>
       </c>
       <c r="J30">
-        <v>310161</v>
+        <v>241861</v>
       </c>
       <c r="K30">
-        <v>257703</v>
+        <v>203994</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1967746</v>
+        <v>1156986</v>
       </c>
       <c r="O30">
-        <v>2277907</v>
+        <v>1438926</v>
       </c>
       <c r="P30">
-        <v>567864</v>
+        <v>445855</v>
       </c>
       <c r="Q30">
-        <v>-27852</v>
+        <v>7378</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>252539</v>
+        <v>180667</v>
       </c>
       <c r="T30">
-        <v>255693</v>
+        <v>123221</v>
       </c>
       <c r="U30">
-        <v>385823</v>
+        <v>40136</v>
       </c>
       <c r="V30">
-        <v>12554</v>
+        <v>-29247</v>
       </c>
       <c r="W30">
-        <v>-2515</v>
+        <v>-1316</v>
       </c>
       <c r="X30">
-        <v>-21763</v>
+        <v>68305</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>12850</v>
+        <v>23751</v>
       </c>
       <c r="AA30">
-        <v>4232</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>8712</v>
+        <v>2373</v>
       </c>
       <c r="D31">
-        <v>26742</v>
+        <v>15497</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>26742</v>
+        <v>15497</v>
       </c>
       <c r="G31">
-        <v>1241229</v>
+        <v>895506</v>
       </c>
       <c r="H31">
-        <v>2609785</v>
+        <v>1642862</v>
       </c>
       <c r="I31">
-        <v>1663281</v>
+        <v>866859</v>
       </c>
       <c r="J31">
-        <v>296033</v>
+        <v>219891</v>
       </c>
       <c r="K31">
-        <v>288675</v>
+        <v>271665</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>-651</v>
       </c>
       <c r="M31">
-        <v>-31980</v>
+        <v>-17480</v>
       </c>
       <c r="N31">
-        <v>2056444</v>
+        <v>1296489</v>
       </c>
       <c r="O31">
-        <v>2353584</v>
+        <v>1517235</v>
       </c>
       <c r="P31">
-        <v>584708</v>
+        <v>491556</v>
       </c>
       <c r="Q31">
-        <v>-16492</v>
+        <v>6744</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
-        <v>253707</v>
+        <v>182166</v>
       </c>
       <c r="T31">
-        <v>256201</v>
+        <v>125627</v>
       </c>
       <c r="U31">
-        <v>370490</v>
+        <v>48233</v>
       </c>
       <c r="V31">
-        <v>-35109</v>
+        <v>-2423</v>
       </c>
       <c r="W31">
-        <v>-2236</v>
+        <v>-1319</v>
       </c>
       <c r="X31">
-        <v>60589</v>
+        <v>77289</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>8814</v>
+        <v>-16888</v>
       </c>
       <c r="AA31">
-        <v>8712</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>8316</v>
+        <v>2003</v>
       </c>
       <c r="D32">
-        <v>26543</v>
+        <v>16580</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>26543</v>
+        <v>16580</v>
       </c>
       <c r="G32">
-        <v>1211549</v>
+        <v>978164</v>
       </c>
       <c r="H32">
-        <v>2590050</v>
+        <v>1775670</v>
       </c>
       <c r="I32">
-        <v>1635856</v>
+        <v>743768</v>
       </c>
       <c r="J32">
-        <v>294437</v>
+        <v>277232</v>
       </c>
       <c r="K32">
-        <v>288355</v>
+        <v>244875</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2037038</v>
+        <v>1306306</v>
       </c>
       <c r="O32">
-        <v>2332592</v>
+        <v>1642494</v>
       </c>
       <c r="P32">
-        <v>582792</v>
+        <v>564995</v>
       </c>
       <c r="Q32">
-        <v>-9632</v>
+        <v>-14633</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
-        <v>252942</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>257458</v>
+        <v>133176</v>
       </c>
       <c r="U32">
-        <v>405330</v>
+        <v>34502</v>
       </c>
       <c r="V32">
-        <v>35685</v>
+        <v>26396</v>
       </c>
       <c r="W32">
-        <v>-2480</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-46823</v>
+        <v>-55335</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>2711</v>
+        <v>-19026</v>
       </c>
       <c r="AA32">
-        <v>8316</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>8380</v>
+        <v>527</v>
       </c>
       <c r="D33">
-        <v>26312</v>
+        <v>15091</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="F33">
-        <v>26312</v>
+        <v>15091</v>
       </c>
       <c r="G33">
-        <v>1235233</v>
+        <v>1113270</v>
       </c>
       <c r="H33">
-        <v>2615183</v>
+        <v>2251469</v>
       </c>
       <c r="I33">
-        <v>1656413</v>
+        <v>1005517</v>
       </c>
       <c r="J33">
-        <v>290365</v>
+        <v>291002</v>
       </c>
       <c r="K33">
-        <v>293095</v>
+        <v>339876</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2064765</v>
+        <v>1748572</v>
       </c>
       <c r="O33">
-        <v>2356227</v>
+        <v>2105626</v>
       </c>
       <c r="P33">
-        <v>583460</v>
+        <v>713251</v>
       </c>
       <c r="Q33">
-        <v>13917</v>
+        <v>22095</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
-        <v>255313</v>
+        <v>228452</v>
       </c>
       <c r="T33">
-        <v>258956</v>
+        <v>145843</v>
       </c>
       <c r="U33">
-        <v>419107</v>
+        <v>59271</v>
       </c>
       <c r="V33">
-        <v>13189</v>
+        <v>8432</v>
       </c>
       <c r="W33">
-        <v>-2273</v>
+        <v>-1364</v>
       </c>
       <c r="X33">
-        <v>2553</v>
+        <v>179731</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>-460</v>
+        <v>-33392</v>
       </c>
       <c r="AA33">
-        <v>8380</v>
+        <v>527</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>7066</v>
+        <v>702</v>
       </c>
       <c r="D34">
-        <v>24387</v>
+        <v>16505</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>24387</v>
+        <v>16505</v>
       </c>
       <c r="G34">
-        <v>1181001</v>
+        <v>1094370</v>
       </c>
       <c r="H34">
-        <v>2622532</v>
+        <v>2175052</v>
       </c>
       <c r="I34">
-        <v>1543482</v>
+        <v>1081772</v>
       </c>
       <c r="J34">
-        <v>302272</v>
+        <v>413644</v>
       </c>
       <c r="K34">
-        <v>296665</v>
+        <v>230391</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>2063745</v>
+        <v>1594524</v>
       </c>
       <c r="O34">
-        <v>2366017</v>
+        <v>2008168</v>
       </c>
       <c r="P34">
-        <v>598937</v>
+        <v>644035</v>
       </c>
       <c r="Q34">
-        <v>-140304</v>
+        <v>-27455</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>256105</v>
+        <v>224961</v>
       </c>
       <c r="T34">
-        <v>256515</v>
+        <v>166884</v>
       </c>
       <c r="U34">
-        <v>238077</v>
+        <v>28145</v>
       </c>
       <c r="V34">
-        <v>422</v>
+        <v>-9307</v>
       </c>
       <c r="W34">
-        <v>-3120</v>
+        <v>-1884</v>
       </c>
       <c r="X34">
-        <v>17839</v>
+        <v>46146</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-29111</v>
+        <v>-156992</v>
       </c>
       <c r="AA34">
-        <v>7066</v>
+        <v>702</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>9179</v>
+        <v>2141</v>
       </c>
       <c r="D35">
-        <v>27581</v>
+        <v>18375</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>27581</v>
+        <v>18375</v>
       </c>
       <c r="G35">
-        <v>1318286</v>
+        <v>898998</v>
       </c>
       <c r="H35">
-        <v>2737188</v>
+        <v>2079188</v>
       </c>
       <c r="I35">
-        <v>1690894</v>
+        <v>1071028</v>
       </c>
       <c r="J35">
-        <v>316848</v>
+        <v>384455</v>
       </c>
       <c r="K35">
-        <v>336285</v>
+        <v>312922</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-25019</v>
       </c>
       <c r="M35">
-        <v>-12425</v>
+        <v>-19556</v>
       </c>
       <c r="N35">
-        <v>2152081</v>
+        <v>1523756</v>
       </c>
       <c r="O35">
-        <v>2477351</v>
+        <v>1908994</v>
       </c>
       <c r="P35">
-        <v>661695</v>
+        <v>697377</v>
       </c>
       <c r="Q35">
-        <v>23811</v>
+        <v>-214</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
-        <v>255998</v>
+        <v>219569</v>
       </c>
       <c r="T35">
-        <v>259837</v>
+        <v>170194</v>
       </c>
       <c r="U35">
-        <v>259804</v>
+        <v>27121</v>
       </c>
       <c r="V35">
-        <v>-80880</v>
+        <v>50756</v>
       </c>
       <c r="W35">
-        <v>-3033</v>
+        <v>-1832</v>
       </c>
       <c r="X35">
-        <v>69435</v>
+        <v>-54309</v>
       </c>
       <c r="Y35">
-        <v>7364</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-2772</v>
+        <v>-77774</v>
       </c>
       <c r="AA35">
-        <v>9179</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>9652</v>
+        <v>2721</v>
       </c>
       <c r="D36">
-        <v>27598</v>
+        <v>20364</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>27598</v>
+        <v>20364</v>
       </c>
       <c r="G36">
-        <v>1255864</v>
+        <v>846419</v>
       </c>
       <c r="H36">
-        <v>2727379</v>
+        <v>2026642</v>
       </c>
       <c r="I36">
-        <v>1722065</v>
+        <v>1036541</v>
       </c>
       <c r="J36">
-        <v>314454</v>
+        <v>327252</v>
       </c>
       <c r="K36">
-        <v>305952</v>
+        <v>343644</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>2140964</v>
+        <v>1543766</v>
       </c>
       <c r="O36">
-        <v>2464164</v>
+        <v>1871876</v>
       </c>
       <c r="P36">
-        <v>628810</v>
+        <v>710496</v>
       </c>
       <c r="Q36">
-        <v>-34566</v>
+        <v>-1548</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
-        <v>254983</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>263215</v>
+        <v>154766</v>
       </c>
       <c r="U36">
-        <v>222538</v>
+        <v>25442</v>
       </c>
       <c r="V36">
-        <v>-13854</v>
+        <v>52503</v>
       </c>
       <c r="W36">
-        <v>-3048</v>
+        <v>-849</v>
       </c>
       <c r="X36">
-        <v>-12966</v>
+        <v>-86939</v>
       </c>
       <c r="Y36">
-        <v>7617</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-36286</v>
+        <v>18787</v>
       </c>
       <c r="AA36">
-        <v>9652</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>9080</v>
+        <v>3588</v>
       </c>
       <c r="D37">
-        <v>27777</v>
+        <v>21606</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>27777</v>
+        <v>21606</v>
       </c>
       <c r="G37">
-        <v>1215608</v>
+        <v>881065</v>
       </c>
       <c r="H37">
-        <v>2764661</v>
+        <v>2041009</v>
       </c>
       <c r="I37">
-        <v>1732034</v>
+        <v>1037597</v>
       </c>
       <c r="J37">
-        <v>314987</v>
+        <v>308607</v>
       </c>
       <c r="K37">
-        <v>346849</v>
+        <v>364139</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>2176130</v>
+        <v>1568383</v>
       </c>
       <c r="O37">
-        <v>2500313</v>
+        <v>1878756</v>
       </c>
       <c r="P37">
-        <v>670261</v>
+        <v>704946</v>
       </c>
       <c r="Q37">
-        <v>-11441</v>
+        <v>-4065</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
-        <v>257444</v>
+        <v>220861</v>
       </c>
       <c r="T37">
-        <v>264348</v>
+        <v>162253</v>
       </c>
       <c r="U37">
-        <v>209505</v>
+        <v>21415</v>
       </c>
       <c r="V37">
-        <v>16015</v>
+        <v>7625</v>
       </c>
       <c r="W37">
-        <v>-2975</v>
+        <v>-252</v>
       </c>
       <c r="X37">
-        <v>39537</v>
+        <v>-13310</v>
       </c>
       <c r="Y37">
-        <v>8031</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-85809</v>
+        <v>-18101</v>
       </c>
       <c r="AA37">
-        <v>9080</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>8520</v>
+        <v>3278</v>
       </c>
       <c r="D38">
-        <v>26857</v>
+        <v>21273</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>26857</v>
+        <v>21273</v>
       </c>
       <c r="G38">
-        <v>1068584</v>
+        <v>895399</v>
       </c>
       <c r="H38">
-        <v>2687379</v>
+        <v>2031989</v>
       </c>
       <c r="I38">
-        <v>1635858</v>
+        <v>1007276</v>
       </c>
       <c r="J38">
-        <v>309339</v>
+        <v>337283</v>
       </c>
       <c r="K38">
-        <v>272003</v>
+        <v>363332</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2108205</v>
+        <v>1528402</v>
       </c>
       <c r="O38">
-        <v>2426049</v>
+        <v>1866624</v>
       </c>
       <c r="P38">
-        <v>589847</v>
+        <v>700615</v>
       </c>
       <c r="Q38">
-        <v>7034</v>
+        <v>5138</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>256981</v>
+        <v>222316</v>
       </c>
       <c r="T38">
-        <v>261330</v>
+        <v>165365</v>
       </c>
       <c r="U38">
-        <v>217142</v>
+        <v>25461</v>
       </c>
       <c r="V38">
-        <v>82811</v>
+        <v>11913</v>
       </c>
       <c r="W38">
-        <v>-3287</v>
+        <v>-489</v>
       </c>
       <c r="X38">
-        <v>-63019</v>
+        <v>1479</v>
       </c>
       <c r="Y38">
-        <v>8505</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-4905</v>
+        <v>7307</v>
       </c>
       <c r="AA38">
-        <v>8520</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>2865</v>
+        <v>3326</v>
       </c>
       <c r="D39">
-        <v>19907</v>
+        <v>20661</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>19907</v>
+        <v>20661</v>
       </c>
       <c r="G39">
-        <v>1399484</v>
+        <v>938165</v>
       </c>
       <c r="H39">
-        <v>3139431</v>
+        <v>2135796</v>
       </c>
       <c r="I39">
-        <v>2067645</v>
+        <v>1075147</v>
       </c>
       <c r="J39">
-        <v>318974</v>
+        <v>388293</v>
       </c>
       <c r="K39">
-        <v>354303</v>
+        <v>410466</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-29057</v>
+        <v>-32548</v>
       </c>
       <c r="N39">
-        <v>2547757</v>
+        <v>1580441</v>
       </c>
       <c r="O39">
-        <v>2878169</v>
+        <v>1971075</v>
       </c>
       <c r="P39">
-        <v>681793</v>
+        <v>815359</v>
       </c>
       <c r="Q39">
-        <v>103903</v>
+        <v>5216</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
-        <v>256720</v>
+        <v>226623</v>
       </c>
       <c r="T39">
-        <v>261262</v>
+        <v>164721</v>
       </c>
       <c r="U39">
-        <v>344064</v>
+        <v>31590</v>
       </c>
       <c r="V39">
-        <v>-120772</v>
+        <v>17394</v>
       </c>
       <c r="W39">
-        <v>-3188</v>
+        <v>-253</v>
       </c>
       <c r="X39">
-        <v>362305</v>
+        <v>2023</v>
       </c>
       <c r="Y39">
-        <v>8516</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-65801</v>
+        <v>4905</v>
       </c>
       <c r="AA39">
-        <v>2865</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>4687</v>
+        <v>4795</v>
       </c>
       <c r="D40">
-        <v>22507</v>
+        <v>21738</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>22507</v>
+        <v>21738</v>
       </c>
       <c r="G40">
-        <v>1476556</v>
+        <v>860525</v>
       </c>
       <c r="H40">
-        <v>3213115</v>
+        <v>2014019</v>
       </c>
       <c r="I40">
-        <v>2140815</v>
+        <v>1045071</v>
       </c>
       <c r="J40">
-        <v>337831</v>
+        <v>371097</v>
       </c>
       <c r="K40">
-        <v>344438</v>
+        <v>340974</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2600088</v>
+        <v>1470890</v>
       </c>
       <c r="O40">
-        <v>2948649</v>
+        <v>1842899</v>
       </c>
       <c r="P40">
-        <v>690695</v>
+        <v>722171</v>
       </c>
       <c r="Q40">
-        <v>126195</v>
+        <v>1384</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
-        <v>256710</v>
+        <v>232939</v>
       </c>
       <c r="T40">
-        <v>264466</v>
+        <v>171120</v>
       </c>
       <c r="U40">
-        <v>468529</v>
+        <v>33005</v>
       </c>
       <c r="V40">
-        <v>83740</v>
+        <v>28333</v>
       </c>
       <c r="W40">
-        <v>-3154</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>89131</v>
+        <v>-114347</v>
       </c>
       <c r="Y40">
-        <v>8426</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-83144</v>
+        <v>51440</v>
       </c>
       <c r="AA40">
-        <v>4687</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>9443</v>
+        <v>4418</v>
       </c>
       <c r="D41">
-        <v>28536</v>
+        <v>20601</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>28536</v>
+        <v>20601</v>
       </c>
       <c r="G41">
-        <v>1507840</v>
+        <v>964783</v>
       </c>
       <c r="H41">
-        <v>3246076</v>
+        <v>2141595</v>
       </c>
       <c r="I41">
-        <v>2213522</v>
+        <v>1067513</v>
       </c>
       <c r="J41">
-        <v>298366</v>
+        <v>382069</v>
       </c>
       <c r="K41">
-        <v>339390</v>
+        <v>430974</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2665347</v>
+        <v>1584823</v>
       </c>
       <c r="O41">
-        <v>2974963</v>
+        <v>1967765</v>
       </c>
       <c r="P41">
-        <v>646091</v>
+        <v>815643</v>
       </c>
       <c r="Q41">
-        <v>-6207</v>
+        <v>-8846</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
-        <v>256358</v>
+        <v>236810</v>
       </c>
       <c r="T41">
-        <v>271113</v>
+        <v>173830</v>
       </c>
       <c r="U41">
-        <v>462822</v>
+        <v>24172</v>
       </c>
       <c r="V41">
-        <v>-14826</v>
+        <v>-50590</v>
       </c>
       <c r="W41">
-        <v>-3209</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>19251</v>
+        <v>93751</v>
       </c>
       <c r="Y41">
-        <v>8335</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>27831</v>
+        <v>-12744</v>
       </c>
       <c r="AA41">
-        <v>9443</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>4831</v>
+      </c>
+      <c r="D42">
+        <v>23055</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>23055</v>
+      </c>
+      <c r="G42">
+        <v>965881</v>
+      </c>
+      <c r="H42">
+        <v>2117605</v>
+      </c>
+      <c r="I42">
+        <v>1005340</v>
+      </c>
+      <c r="J42">
+        <v>348302</v>
+      </c>
+      <c r="K42">
+        <v>415551</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1593197</v>
+      </c>
+      <c r="O42">
+        <v>1941499</v>
+      </c>
+      <c r="P42">
+        <v>763853</v>
+      </c>
+      <c r="Q42">
+        <v>3607</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>239831</v>
+      </c>
+      <c r="T42">
+        <v>176106</v>
+      </c>
+      <c r="U42">
+        <v>27016</v>
+      </c>
+      <c r="V42">
+        <v>1111</v>
+      </c>
+      <c r="W42">
+        <v>-484</v>
+      </c>
+      <c r="X42">
+        <v>-30644</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>29884</v>
+      </c>
+      <c r="AA42">
+        <v>4831</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>5555</v>
+      </c>
+      <c r="D43">
+        <v>24052</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>24052</v>
+      </c>
+      <c r="G43">
+        <v>1034818</v>
+      </c>
+      <c r="H43">
+        <v>2198161</v>
+      </c>
+      <c r="I43">
+        <v>1162572</v>
+      </c>
+      <c r="J43">
+        <v>340533</v>
+      </c>
+      <c r="K43">
+        <v>433032</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-27250</v>
+      </c>
+      <c r="N43">
+        <v>1675635</v>
+      </c>
+      <c r="O43">
+        <v>2017563</v>
+      </c>
+      <c r="P43">
+        <v>773565</v>
+      </c>
+      <c r="Q43">
+        <v>-4098</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>242929</v>
+      </c>
+      <c r="T43">
+        <v>180598</v>
+      </c>
+      <c r="U43">
+        <v>23837</v>
+      </c>
+      <c r="V43">
+        <v>-5979</v>
+      </c>
+      <c r="W43">
+        <v>-246</v>
+      </c>
+      <c r="X43">
+        <v>67328</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-73877</v>
+      </c>
+      <c r="AA43">
+        <v>5555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>5431</v>
+      </c>
+      <c r="D44">
+        <v>24969</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>24969</v>
+      </c>
+      <c r="G44">
+        <v>1083179</v>
+      </c>
+      <c r="H44">
+        <v>2246764</v>
+      </c>
+      <c r="I44">
+        <v>1228261</v>
+      </c>
+      <c r="J44">
+        <v>346685</v>
+      </c>
+      <c r="K44">
+        <v>402760</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1716574</v>
+      </c>
+      <c r="O44">
+        <v>2063885</v>
+      </c>
+      <c r="P44">
+        <v>749445</v>
+      </c>
+      <c r="Q44">
+        <v>6997</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>182879</v>
+      </c>
+      <c r="U44">
+        <v>30754</v>
+      </c>
+      <c r="V44">
+        <v>64704</v>
+      </c>
+      <c r="W44">
+        <v>-1319</v>
+      </c>
+      <c r="X44">
+        <v>21997</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-74739</v>
+      </c>
+      <c r="AA44">
+        <v>5431</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>4262</v>
+      </c>
+      <c r="D45">
+        <v>21352</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>21352</v>
+      </c>
+      <c r="G45">
+        <v>1106920</v>
+      </c>
+      <c r="H45">
+        <v>2289240</v>
+      </c>
+      <c r="I45">
+        <v>1287498</v>
+      </c>
+      <c r="J45">
+        <v>339659</v>
+      </c>
+      <c r="K45">
+        <v>401825</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1766608</v>
+      </c>
+      <c r="O45">
+        <v>2106953</v>
+      </c>
+      <c r="P45">
+        <v>741484</v>
+      </c>
+      <c r="Q45">
+        <v>26300</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>256663</v>
+      </c>
+      <c r="T45">
+        <v>182287</v>
+      </c>
+      <c r="U45">
+        <v>57608</v>
+      </c>
+      <c r="V45">
+        <v>7793</v>
+      </c>
+      <c r="W45">
+        <v>-1061</v>
+      </c>
+      <c r="X45">
+        <v>43040</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>22614</v>
+      </c>
+      <c r="AA45">
+        <v>4262</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>3728</v>
+      </c>
+      <c r="D46">
+        <v>19287</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>19287</v>
+      </c>
+      <c r="G46">
+        <v>1034587</v>
+      </c>
+      <c r="H46">
+        <v>2265792</v>
+      </c>
+      <c r="I46">
+        <v>1209348</v>
+      </c>
+      <c r="J46">
+        <v>322752</v>
+      </c>
+      <c r="K46">
+        <v>362048</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1759467</v>
+      </c>
+      <c r="O46">
+        <v>2082219</v>
+      </c>
+      <c r="P46">
+        <v>684800</v>
+      </c>
+      <c r="Q46">
+        <v>2836</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>260157</v>
+      </c>
+      <c r="T46">
+        <v>183573</v>
+      </c>
+      <c r="U46">
+        <v>55516</v>
+      </c>
+      <c r="V46">
+        <v>29414</v>
+      </c>
+      <c r="W46">
+        <v>-1269</v>
+      </c>
+      <c r="X46">
+        <v>-24659</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>15588</v>
+      </c>
+      <c r="AA46">
+        <v>3728</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>4924</v>
+      </c>
+      <c r="D47">
+        <v>24226</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>24226</v>
+      </c>
+      <c r="G47">
+        <v>1076705</v>
+      </c>
+      <c r="H47">
+        <v>2320164</v>
+      </c>
+      <c r="I47">
+        <v>1327699</v>
+      </c>
+      <c r="J47">
+        <v>323581</v>
+      </c>
+      <c r="K47">
+        <v>406641</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-16713</v>
+      </c>
+      <c r="N47">
+        <v>1806564</v>
+      </c>
+      <c r="O47">
+        <v>2130895</v>
+      </c>
+      <c r="P47">
+        <v>730222</v>
+      </c>
+      <c r="Q47">
+        <v>-4219</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>261453</v>
+      </c>
+      <c r="T47">
+        <v>189269</v>
+      </c>
+      <c r="U47">
+        <v>55586</v>
+      </c>
+      <c r="V47">
+        <v>4266</v>
+      </c>
+      <c r="W47">
+        <v>-1024</v>
+      </c>
+      <c r="X47">
+        <v>35352</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-40866</v>
+      </c>
+      <c r="AA47">
+        <v>4924</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>4960</v>
+      </c>
+      <c r="D48">
+        <v>21966</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>21966</v>
+      </c>
+      <c r="G48">
+        <v>1058695</v>
+      </c>
+      <c r="H48">
+        <v>2290146</v>
+      </c>
+      <c r="I48">
+        <v>1318250</v>
+      </c>
+      <c r="J48">
+        <v>294592</v>
+      </c>
+      <c r="K48">
+        <v>413451</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1803218</v>
+      </c>
+      <c r="O48">
+        <v>2098574</v>
+      </c>
+      <c r="P48">
+        <v>708043</v>
+      </c>
+      <c r="Q48">
+        <v>-10517</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>262882</v>
+      </c>
+      <c r="T48">
+        <v>191572</v>
+      </c>
+      <c r="U48">
+        <v>45134</v>
+      </c>
+      <c r="V48">
+        <v>41983</v>
+      </c>
+      <c r="W48">
+        <v>-1469</v>
+      </c>
+      <c r="X48">
+        <v>-30485</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>9353</v>
+      </c>
+      <c r="AA48">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>5708</v>
+      </c>
+      <c r="D49">
+        <v>22469</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>22469</v>
+      </c>
+      <c r="G49">
+        <v>1089596</v>
+      </c>
+      <c r="H49">
+        <v>2321284</v>
+      </c>
+      <c r="I49">
+        <v>1338122</v>
+      </c>
+      <c r="J49">
+        <v>299058</v>
+      </c>
+      <c r="K49">
+        <v>411508</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1821781</v>
+      </c>
+      <c r="O49">
+        <v>2121591</v>
+      </c>
+      <c r="P49">
+        <v>710566</v>
+      </c>
+      <c r="Q49">
+        <v>8477</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>259547</v>
+      </c>
+      <c r="T49">
+        <v>199693</v>
+      </c>
+      <c r="U49">
+        <v>53649</v>
+      </c>
+      <c r="V49">
+        <v>-16659</v>
+      </c>
+      <c r="W49">
+        <v>-1223</v>
+      </c>
+      <c r="X49">
+        <v>28754</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>21083</v>
+      </c>
+      <c r="AA49">
+        <v>5708</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>5692</v>
+      </c>
+      <c r="D50">
+        <v>22997</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>22997</v>
+      </c>
+      <c r="G50">
+        <v>1109684</v>
+      </c>
+      <c r="H50">
+        <v>2359141</v>
+      </c>
+      <c r="I50">
+        <v>1273535</v>
+      </c>
+      <c r="J50">
+        <v>312215</v>
+      </c>
+      <c r="K50">
+        <v>399662</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1842857</v>
+      </c>
+      <c r="O50">
+        <v>2155072</v>
+      </c>
+      <c r="P50">
+        <v>711877</v>
+      </c>
+      <c r="Q50">
+        <v>380</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>258965</v>
+      </c>
+      <c r="T50">
+        <v>204069</v>
+      </c>
+      <c r="U50">
+        <v>49006</v>
+      </c>
+      <c r="V50">
+        <v>-4511</v>
+      </c>
+      <c r="W50">
+        <v>-1478</v>
+      </c>
+      <c r="X50">
+        <v>54086</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-21201</v>
+      </c>
+      <c r="AA50">
+        <v>5692</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>6529</v>
+      </c>
+      <c r="D51">
+        <v>24505</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>24505</v>
+      </c>
+      <c r="G51">
+        <v>1148009</v>
+      </c>
+      <c r="H51">
+        <v>2389349</v>
+      </c>
+      <c r="I51">
+        <v>1391566</v>
+      </c>
+      <c r="J51">
+        <v>326661</v>
+      </c>
+      <c r="K51">
+        <v>398943</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-18993</v>
+      </c>
+      <c r="N51">
+        <v>1854886</v>
+      </c>
+      <c r="O51">
+        <v>2182263</v>
+      </c>
+      <c r="P51">
+        <v>725604</v>
+      </c>
+      <c r="Q51">
+        <v>-8199</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>255898</v>
+      </c>
+      <c r="T51">
+        <v>207086</v>
+      </c>
+      <c r="U51">
+        <v>45841</v>
+      </c>
+      <c r="V51">
+        <v>19964</v>
+      </c>
+      <c r="W51">
+        <v>-1242</v>
+      </c>
+      <c r="X51">
+        <v>28180</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>-135668</v>
+      </c>
+      <c r="AA51">
+        <v>6529</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>6496</v>
+      </c>
+      <c r="D52">
+        <v>25164</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>25164</v>
+      </c>
+      <c r="G52">
+        <v>1199230</v>
+      </c>
+      <c r="H52">
+        <v>2439494</v>
+      </c>
+      <c r="I52">
+        <v>1410517</v>
+      </c>
+      <c r="J52">
+        <v>321302</v>
+      </c>
+      <c r="K52">
+        <v>412839</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1908200</v>
+      </c>
+      <c r="O52">
+        <v>2230255</v>
+      </c>
+      <c r="P52">
+        <v>734141</v>
+      </c>
+      <c r="Q52">
+        <v>-16310</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>209239</v>
+      </c>
+      <c r="U52">
+        <v>30105</v>
+      </c>
+      <c r="V52">
+        <v>68520</v>
+      </c>
+      <c r="W52">
+        <v>-1485</v>
+      </c>
+      <c r="X52">
+        <v>1928</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-50442</v>
+      </c>
+      <c r="AA52">
+        <v>6496</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>-380</v>
+      </c>
+      <c r="D53">
+        <v>23660</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>23660</v>
+      </c>
+      <c r="G53">
+        <v>1215796</v>
+      </c>
+      <c r="H53">
+        <v>2463309</v>
+      </c>
+      <c r="I53">
+        <v>1489917</v>
+      </c>
+      <c r="J53">
+        <v>312230</v>
+      </c>
+      <c r="K53">
+        <v>365872</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1943732</v>
+      </c>
+      <c r="O53">
+        <v>2256639</v>
+      </c>
+      <c r="P53">
+        <v>678102</v>
+      </c>
+      <c r="Q53">
+        <v>1450</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>255041</v>
+      </c>
+      <c r="T53">
+        <v>206670</v>
+      </c>
+      <c r="U53">
+        <v>31105</v>
+      </c>
+      <c r="V53">
+        <v>26383</v>
+      </c>
+      <c r="W53">
+        <v>-1547</v>
+      </c>
+      <c r="X53">
+        <v>21135</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-57938</v>
+      </c>
+      <c r="AA53">
+        <v>-380</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>5278</v>
+      </c>
+      <c r="D54">
+        <v>23052</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>23052</v>
+      </c>
+      <c r="G54">
+        <v>1169153</v>
+      </c>
+      <c r="H54">
+        <v>2415689</v>
+      </c>
+      <c r="I54">
+        <v>1360065</v>
+      </c>
+      <c r="J54">
+        <v>317506</v>
+      </c>
+      <c r="K54">
+        <v>330119</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1887005</v>
+      </c>
+      <c r="O54">
+        <v>2204511</v>
+      </c>
+      <c r="P54">
+        <v>647625</v>
+      </c>
+      <c r="Q54">
+        <v>9107</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>251196</v>
+      </c>
+      <c r="T54">
+        <v>211178</v>
+      </c>
+      <c r="U54">
+        <v>34902</v>
+      </c>
+      <c r="V54">
+        <v>-6914</v>
+      </c>
+      <c r="W54">
+        <v>-1782</v>
+      </c>
+      <c r="X54">
+        <v>-22919</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>58337</v>
+      </c>
+      <c r="AA54">
+        <v>5278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>5269</v>
+      </c>
+      <c r="D55">
+        <v>22365</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>22365</v>
+      </c>
+      <c r="G55">
+        <v>1243974</v>
+      </c>
+      <c r="H55">
+        <v>2476986</v>
+      </c>
+      <c r="I55">
+        <v>1483733</v>
+      </c>
+      <c r="J55">
+        <v>321300</v>
+      </c>
+      <c r="K55">
+        <v>359356</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-20246</v>
+      </c>
+      <c r="N55">
+        <v>1935393</v>
+      </c>
+      <c r="O55">
+        <v>2257331</v>
+      </c>
+      <c r="P55">
+        <v>680656</v>
+      </c>
+      <c r="Q55">
+        <v>-13450</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>246994</v>
+      </c>
+      <c r="T55">
+        <v>219655</v>
+      </c>
+      <c r="U55">
+        <v>26748</v>
+      </c>
+      <c r="V55">
+        <v>14667</v>
+      </c>
+      <c r="W55">
+        <v>-1554</v>
+      </c>
+      <c r="X55">
+        <v>40318</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-51874</v>
+      </c>
+      <c r="AA55">
+        <v>5269</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>5980</v>
+      </c>
+      <c r="D56">
+        <v>23986</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>23986</v>
+      </c>
+      <c r="G56">
+        <v>1262460</v>
+      </c>
+      <c r="H56">
+        <v>2520336</v>
+      </c>
+      <c r="I56">
+        <v>1516436</v>
+      </c>
+      <c r="J56">
+        <v>315652</v>
+      </c>
+      <c r="K56">
+        <v>371573</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1976722</v>
+      </c>
+      <c r="O56">
+        <v>2293022</v>
+      </c>
+      <c r="P56">
+        <v>687225</v>
+      </c>
+      <c r="Q56">
+        <v>1202</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>245192</v>
+      </c>
+      <c r="T56">
+        <v>227314</v>
+      </c>
+      <c r="U56">
+        <v>27850</v>
+      </c>
+      <c r="V56">
+        <v>-4371</v>
+      </c>
+      <c r="W56">
+        <v>-1806</v>
+      </c>
+      <c r="X56">
+        <v>35118</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-28632</v>
+      </c>
+      <c r="AA56">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>5565</v>
+      </c>
+      <c r="D57">
+        <v>23712</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>23712</v>
+      </c>
+      <c r="G57">
+        <v>1265200</v>
+      </c>
+      <c r="H57">
+        <v>2527005</v>
+      </c>
+      <c r="I57">
+        <v>1544151</v>
+      </c>
+      <c r="J57">
+        <v>316285</v>
+      </c>
+      <c r="K57">
+        <v>349549</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1978806</v>
+      </c>
+      <c r="O57">
+        <v>2295728</v>
+      </c>
+      <c r="P57">
+        <v>665834</v>
+      </c>
+      <c r="Q57">
+        <v>-2151</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>242388</v>
+      </c>
+      <c r="T57">
+        <v>231277</v>
+      </c>
+      <c r="U57">
+        <v>25674</v>
+      </c>
+      <c r="V57">
+        <v>-2449</v>
+      </c>
+      <c r="W57">
+        <v>-1718</v>
+      </c>
+      <c r="X57">
+        <v>-1375</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-31903</v>
+      </c>
+      <c r="AA57">
+        <v>5565</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>4931</v>
+      </c>
+      <c r="D58">
+        <v>21910</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>21910</v>
+      </c>
+      <c r="G58">
+        <v>1316406</v>
+      </c>
+      <c r="H58">
+        <v>2572274</v>
+      </c>
+      <c r="I58">
+        <v>1431799</v>
+      </c>
+      <c r="J58">
+        <v>328699</v>
+      </c>
+      <c r="K58">
+        <v>363883</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2011848</v>
+      </c>
+      <c r="O58">
+        <v>2340547</v>
+      </c>
+      <c r="P58">
+        <v>692582</v>
+      </c>
+      <c r="Q58">
+        <v>2459</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>241359</v>
+      </c>
+      <c r="T58">
+        <v>231727</v>
+      </c>
+      <c r="U58">
+        <v>18013</v>
+      </c>
+      <c r="V58">
+        <v>28746</v>
+      </c>
+      <c r="W58">
+        <v>-1912</v>
+      </c>
+      <c r="X58">
+        <v>44167</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>-54622</v>
+      </c>
+      <c r="AA58">
+        <v>4931</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>5914</v>
+      </c>
+      <c r="D59">
+        <v>23107</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>23107</v>
+      </c>
+      <c r="G59">
+        <v>1332285</v>
+      </c>
+      <c r="H59">
+        <v>2577148</v>
+      </c>
+      <c r="I59">
+        <v>1561281</v>
+      </c>
+      <c r="J59">
+        <v>331699</v>
+      </c>
+      <c r="K59">
+        <v>360804</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-34578</v>
+      </c>
+      <c r="N59">
+        <v>2007292</v>
+      </c>
+      <c r="O59">
+        <v>2341284</v>
+      </c>
+      <c r="P59">
+        <v>692503</v>
+      </c>
+      <c r="Q59">
+        <v>-5010</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>241145</v>
+      </c>
+      <c r="T59">
+        <v>235864</v>
+      </c>
+      <c r="U59">
+        <v>23201</v>
+      </c>
+      <c r="V59">
+        <v>14879</v>
+      </c>
+      <c r="W59">
+        <v>-1770</v>
+      </c>
+      <c r="X59">
+        <v>4337</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-11519</v>
+      </c>
+      <c r="AA59">
+        <v>5914</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>6290</v>
+      </c>
+      <c r="D60">
+        <v>22877</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>22877</v>
+      </c>
+      <c r="G60">
+        <v>1191708</v>
+      </c>
+      <c r="H60">
+        <v>2449599</v>
+      </c>
+      <c r="I60">
+        <v>1470909</v>
+      </c>
+      <c r="J60">
+        <v>336695</v>
+      </c>
+      <c r="K60">
+        <v>317322</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1869379</v>
+      </c>
+      <c r="O60">
+        <v>2208394</v>
+      </c>
+      <c r="P60">
+        <v>654017</v>
+      </c>
+      <c r="Q60">
+        <v>1274</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>237459</v>
+      </c>
+      <c r="T60">
+        <v>241205</v>
+      </c>
+      <c r="U60">
+        <v>24876</v>
+      </c>
+      <c r="V60">
+        <v>17296</v>
+      </c>
+      <c r="W60">
+        <v>-1964</v>
+      </c>
+      <c r="X60">
+        <v>-117766</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>119328</v>
+      </c>
+      <c r="AA60">
+        <v>6290</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>6804</v>
+      </c>
+      <c r="D61">
+        <v>22098</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>22098</v>
+      </c>
+      <c r="G61">
+        <v>1144018</v>
+      </c>
+      <c r="H61">
+        <v>2417121</v>
+      </c>
+      <c r="I61">
+        <v>1451882</v>
+      </c>
+      <c r="J61">
+        <v>341678</v>
+      </c>
+      <c r="K61">
+        <v>290089</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1827080</v>
+      </c>
+      <c r="O61">
+        <v>2171393</v>
+      </c>
+      <c r="P61">
+        <v>631767</v>
+      </c>
+      <c r="Q61">
+        <v>-2837</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>235678</v>
+      </c>
+      <c r="T61">
+        <v>245728</v>
+      </c>
+      <c r="U61">
+        <v>22371</v>
+      </c>
+      <c r="V61">
+        <v>25124</v>
+      </c>
+      <c r="W61">
+        <v>-1944</v>
+      </c>
+      <c r="X61">
+        <v>-30084</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>32882</v>
+      </c>
+      <c r="AA61">
+        <v>6804</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>5434</v>
+      </c>
+      <c r="D62">
+        <v>21120</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>21120</v>
+      </c>
+      <c r="G62">
+        <v>1064499</v>
+      </c>
+      <c r="H62">
+        <v>2351698</v>
+      </c>
+      <c r="I62">
+        <v>1345321</v>
+      </c>
+      <c r="J62">
+        <v>330530</v>
+      </c>
+      <c r="K62">
+        <v>246535</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1773595</v>
+      </c>
+      <c r="O62">
+        <v>2104125</v>
+      </c>
+      <c r="P62">
+        <v>577065</v>
+      </c>
+      <c r="Q62">
+        <v>-768</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>234598</v>
+      </c>
+      <c r="T62">
+        <v>247573</v>
+      </c>
+      <c r="U62">
+        <v>6775</v>
+      </c>
+      <c r="V62">
+        <v>16167</v>
+      </c>
+      <c r="W62">
+        <v>-2195</v>
+      </c>
+      <c r="X62">
+        <v>-43998</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>49754</v>
+      </c>
+      <c r="AA62">
+        <v>5434</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>5520</v>
+      </c>
+      <c r="D63">
+        <v>21415</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>21415</v>
+      </c>
+      <c r="G63">
+        <v>1113628</v>
+      </c>
+      <c r="H63">
+        <v>2423808</v>
+      </c>
+      <c r="I63">
+        <v>1494150</v>
+      </c>
+      <c r="J63">
+        <v>329427</v>
+      </c>
+      <c r="K63">
+        <v>262111</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-19304</v>
+      </c>
+      <c r="N63">
+        <v>1844224</v>
+      </c>
+      <c r="O63">
+        <v>2173651</v>
+      </c>
+      <c r="P63">
+        <v>591538</v>
+      </c>
+      <c r="Q63">
+        <v>-2278</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>237420</v>
+      </c>
+      <c r="T63">
+        <v>250157</v>
+      </c>
+      <c r="U63">
+        <v>18315</v>
+      </c>
+      <c r="V63">
+        <v>-21383</v>
+      </c>
+      <c r="W63">
+        <v>-1946</v>
+      </c>
+      <c r="X63">
+        <v>53584</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-11101</v>
+      </c>
+      <c r="AA63">
+        <v>5520</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>6200</v>
+      </c>
+      <c r="D64">
+        <v>22978</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>22978</v>
+      </c>
+      <c r="G64">
+        <v>1141678</v>
+      </c>
+      <c r="H64">
+        <v>2466096</v>
+      </c>
+      <c r="I64">
+        <v>1510993</v>
+      </c>
+      <c r="J64">
+        <v>335854</v>
+      </c>
+      <c r="K64">
+        <v>265632</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1877819</v>
+      </c>
+      <c r="O64">
+        <v>2213673</v>
+      </c>
+      <c r="P64">
+        <v>601486</v>
+      </c>
+      <c r="Q64">
+        <v>1498</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>240046</v>
+      </c>
+      <c r="T64">
+        <v>252423</v>
+      </c>
+      <c r="U64">
+        <v>19826</v>
+      </c>
+      <c r="V64">
+        <v>-1524</v>
+      </c>
+      <c r="W64">
+        <v>-2174</v>
+      </c>
+      <c r="X64">
+        <v>20575</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>21732</v>
+      </c>
+      <c r="AA64">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>6286</v>
+      </c>
+      <c r="D65">
+        <v>23402</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>23402</v>
+      </c>
+      <c r="G65">
+        <v>1201984</v>
+      </c>
+      <c r="H65">
+        <v>2521029</v>
+      </c>
+      <c r="I65">
+        <v>1557312</v>
+      </c>
+      <c r="J65">
+        <v>351651</v>
+      </c>
+      <c r="K65">
+        <v>260771</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1913209</v>
+      </c>
+      <c r="O65">
+        <v>2266698</v>
+      </c>
+      <c r="P65">
+        <v>612422</v>
+      </c>
+      <c r="Q65">
+        <v>1680</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>242315</v>
+      </c>
+      <c r="T65">
+        <v>254331</v>
+      </c>
+      <c r="U65">
+        <v>21465</v>
+      </c>
+      <c r="V65">
+        <v>4192</v>
+      </c>
+      <c r="W65">
+        <v>-2069</v>
+      </c>
+      <c r="X65">
+        <v>57540</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-44652</v>
+      </c>
+      <c r="AA65">
+        <v>6286</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>6727</v>
+      </c>
+      <c r="D66">
+        <v>22512</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>22512</v>
+      </c>
+      <c r="G66">
+        <v>1143554</v>
+      </c>
+      <c r="H66">
+        <v>2490972</v>
+      </c>
+      <c r="I66">
+        <v>1442960</v>
+      </c>
+      <c r="J66">
+        <v>334292</v>
+      </c>
+      <c r="K66">
+        <v>258460</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1902490</v>
+      </c>
+      <c r="O66">
+        <v>2236782</v>
+      </c>
+      <c r="P66">
+        <v>592752</v>
+      </c>
+      <c r="Q66">
+        <v>2483</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>243355</v>
+      </c>
+      <c r="T66">
+        <v>254190</v>
+      </c>
+      <c r="U66">
+        <v>4637</v>
+      </c>
+      <c r="V66">
+        <v>38911</v>
+      </c>
+      <c r="W66">
+        <v>-2287</v>
+      </c>
+      <c r="X66">
+        <v>-33428</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>4932</v>
+      </c>
+      <c r="AA66">
+        <v>6727</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>6448</v>
+      </c>
+      <c r="D67">
+        <v>23624</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>23624</v>
+      </c>
+      <c r="G67">
+        <v>1195778</v>
+      </c>
+      <c r="H67">
+        <v>2546290</v>
+      </c>
+      <c r="I67">
+        <v>1594222</v>
+      </c>
+      <c r="J67">
+        <v>326174</v>
+      </c>
+      <c r="K67">
+        <v>278041</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-26049</v>
+      </c>
+      <c r="N67">
+        <v>1963176</v>
+      </c>
+      <c r="O67">
+        <v>2290427</v>
+      </c>
+      <c r="P67">
+        <v>604215</v>
+      </c>
+      <c r="Q67">
+        <v>70732</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>246345</v>
+      </c>
+      <c r="T67">
+        <v>255863</v>
+      </c>
+      <c r="U67">
+        <v>20568</v>
+      </c>
+      <c r="V67">
+        <v>-22559</v>
+      </c>
+      <c r="W67">
+        <v>-2045</v>
+      </c>
+      <c r="X67">
+        <v>43605</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>8050</v>
+      </c>
+      <c r="AA67">
+        <v>6448</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>7029</v>
+      </c>
+      <c r="D68">
+        <v>23871</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>23871</v>
+      </c>
+      <c r="G68">
+        <v>1216759</v>
+      </c>
+      <c r="H68">
+        <v>2563174</v>
+      </c>
+      <c r="I68">
+        <v>1616016</v>
+      </c>
+      <c r="J68">
+        <v>323871</v>
+      </c>
+      <c r="K68">
+        <v>272059</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1979703</v>
+      </c>
+      <c r="O68">
+        <v>2304691</v>
+      </c>
+      <c r="P68">
+        <v>595930</v>
+      </c>
+      <c r="Q68">
+        <v>-11360</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>258483</v>
+      </c>
+      <c r="U68">
+        <v>22003</v>
+      </c>
+      <c r="V68">
+        <v>4073</v>
+      </c>
+      <c r="W68">
+        <v>-2341</v>
+      </c>
+      <c r="X68">
+        <v>4306</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>21079</v>
+      </c>
+      <c r="AA68">
+        <v>7029</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>6732</v>
+      </c>
+      <c r="D69">
+        <v>24126</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>24126</v>
+      </c>
+      <c r="G69">
+        <v>1230266</v>
+      </c>
+      <c r="H69">
+        <v>2563074</v>
+      </c>
+      <c r="I69">
+        <v>1621770</v>
+      </c>
+      <c r="J69">
+        <v>317006</v>
+      </c>
+      <c r="K69">
+        <v>275306</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1986165</v>
+      </c>
+      <c r="O69">
+        <v>2304692</v>
+      </c>
+      <c r="P69">
+        <v>592312</v>
+      </c>
+      <c r="Q69">
+        <v>8630</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>251503</v>
+      </c>
+      <c r="T69">
+        <v>258382</v>
+      </c>
+      <c r="U69">
+        <v>22071</v>
+      </c>
+      <c r="V69">
+        <v>-4895</v>
+      </c>
+      <c r="W69">
+        <v>-2092</v>
+      </c>
+      <c r="X69">
+        <v>-11506</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>1244</v>
+      </c>
+      <c r="AA69">
+        <v>6732</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>4232</v>
+      </c>
+      <c r="D70">
+        <v>23124</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>23124</v>
+      </c>
+      <c r="G70">
+        <v>1161287</v>
+      </c>
+      <c r="H70">
+        <v>2533600</v>
+      </c>
+      <c r="I70">
+        <v>1516530</v>
+      </c>
+      <c r="J70">
+        <v>310161</v>
+      </c>
+      <c r="K70">
+        <v>257703</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1967746</v>
+      </c>
+      <c r="O70">
+        <v>2277907</v>
+      </c>
+      <c r="P70">
+        <v>567864</v>
+      </c>
+      <c r="Q70">
+        <v>-27852</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>252539</v>
+      </c>
+      <c r="T70">
+        <v>255693</v>
+      </c>
+      <c r="U70">
+        <v>385823</v>
+      </c>
+      <c r="V70">
+        <v>12554</v>
+      </c>
+      <c r="W70">
+        <v>-2515</v>
+      </c>
+      <c r="X70">
+        <v>-21763</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>12850</v>
+      </c>
+      <c r="AA70">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>8712</v>
+      </c>
+      <c r="D71">
+        <v>26742</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>26742</v>
+      </c>
+      <c r="G71">
+        <v>1241229</v>
+      </c>
+      <c r="H71">
+        <v>2609785</v>
+      </c>
+      <c r="I71">
+        <v>1663281</v>
+      </c>
+      <c r="J71">
+        <v>296033</v>
+      </c>
+      <c r="K71">
+        <v>288675</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-31980</v>
+      </c>
+      <c r="N71">
+        <v>2056444</v>
+      </c>
+      <c r="O71">
+        <v>2353584</v>
+      </c>
+      <c r="P71">
+        <v>584708</v>
+      </c>
+      <c r="Q71">
+        <v>-16492</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>253707</v>
+      </c>
+      <c r="T71">
+        <v>256201</v>
+      </c>
+      <c r="U71">
+        <v>370490</v>
+      </c>
+      <c r="V71">
+        <v>-35109</v>
+      </c>
+      <c r="W71">
+        <v>-2236</v>
+      </c>
+      <c r="X71">
+        <v>60589</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>8814</v>
+      </c>
+      <c r="AA71">
+        <v>8712</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>8316</v>
+      </c>
+      <c r="D72">
+        <v>26543</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>26543</v>
+      </c>
+      <c r="G72">
+        <v>1211549</v>
+      </c>
+      <c r="H72">
+        <v>2590050</v>
+      </c>
+      <c r="I72">
+        <v>1635856</v>
+      </c>
+      <c r="J72">
+        <v>294437</v>
+      </c>
+      <c r="K72">
+        <v>288355</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2037038</v>
+      </c>
+      <c r="O72">
+        <v>2332592</v>
+      </c>
+      <c r="P72">
+        <v>582792</v>
+      </c>
+      <c r="Q72">
+        <v>-9632</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>252942</v>
+      </c>
+      <c r="T72">
+        <v>257458</v>
+      </c>
+      <c r="U72">
+        <v>405330</v>
+      </c>
+      <c r="V72">
+        <v>35685</v>
+      </c>
+      <c r="W72">
+        <v>-2480</v>
+      </c>
+      <c r="X72">
+        <v>-46823</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>2711</v>
+      </c>
+      <c r="AA72">
+        <v>8316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>8380</v>
+      </c>
+      <c r="D73">
+        <v>26312</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>26312</v>
+      </c>
+      <c r="G73">
+        <v>1235233</v>
+      </c>
+      <c r="H73">
+        <v>2615183</v>
+      </c>
+      <c r="I73">
+        <v>1656413</v>
+      </c>
+      <c r="J73">
+        <v>290365</v>
+      </c>
+      <c r="K73">
+        <v>293095</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2064765</v>
+      </c>
+      <c r="O73">
+        <v>2356227</v>
+      </c>
+      <c r="P73">
+        <v>583460</v>
+      </c>
+      <c r="Q73">
+        <v>13917</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>255313</v>
+      </c>
+      <c r="T73">
+        <v>258956</v>
+      </c>
+      <c r="U73">
+        <v>419107</v>
+      </c>
+      <c r="V73">
+        <v>13189</v>
+      </c>
+      <c r="W73">
+        <v>-2273</v>
+      </c>
+      <c r="X73">
+        <v>2553</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>-460</v>
+      </c>
+      <c r="AA73">
+        <v>8380</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>7066</v>
+      </c>
+      <c r="D74">
+        <v>24387</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>24387</v>
+      </c>
+      <c r="G74">
+        <v>1181001</v>
+      </c>
+      <c r="H74">
+        <v>2622532</v>
+      </c>
+      <c r="I74">
+        <v>1543482</v>
+      </c>
+      <c r="J74">
+        <v>302272</v>
+      </c>
+      <c r="K74">
+        <v>296665</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>2063745</v>
+      </c>
+      <c r="O74">
+        <v>2366017</v>
+      </c>
+      <c r="P74">
+        <v>598937</v>
+      </c>
+      <c r="Q74">
+        <v>-140304</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>256105</v>
+      </c>
+      <c r="T74">
+        <v>256515</v>
+      </c>
+      <c r="U74">
+        <v>238077</v>
+      </c>
+      <c r="V74">
+        <v>422</v>
+      </c>
+      <c r="W74">
+        <v>-3120</v>
+      </c>
+      <c r="X74">
+        <v>17839</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-29111</v>
+      </c>
+      <c r="AA74">
+        <v>7066</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>9179</v>
+      </c>
+      <c r="D75">
+        <v>27581</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>27581</v>
+      </c>
+      <c r="G75">
+        <v>1318286</v>
+      </c>
+      <c r="H75">
+        <v>2737188</v>
+      </c>
+      <c r="I75">
+        <v>1690894</v>
+      </c>
+      <c r="J75">
+        <v>316848</v>
+      </c>
+      <c r="K75">
+        <v>336285</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-12425</v>
+      </c>
+      <c r="N75">
+        <v>2152081</v>
+      </c>
+      <c r="O75">
+        <v>2477351</v>
+      </c>
+      <c r="P75">
+        <v>661695</v>
+      </c>
+      <c r="Q75">
+        <v>23811</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>255998</v>
+      </c>
+      <c r="T75">
+        <v>259837</v>
+      </c>
+      <c r="U75">
+        <v>259804</v>
+      </c>
+      <c r="V75">
+        <v>-80880</v>
+      </c>
+      <c r="W75">
+        <v>-3033</v>
+      </c>
+      <c r="X75">
+        <v>69435</v>
+      </c>
+      <c r="Y75">
+        <v>7364</v>
+      </c>
+      <c r="Z75">
+        <v>-2772</v>
+      </c>
+      <c r="AA75">
+        <v>9179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>9652</v>
+      </c>
+      <c r="D76">
+        <v>27598</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>27598</v>
+      </c>
+      <c r="G76">
+        <v>1255864</v>
+      </c>
+      <c r="H76">
+        <v>2727379</v>
+      </c>
+      <c r="I76">
+        <v>1722065</v>
+      </c>
+      <c r="J76">
+        <v>314454</v>
+      </c>
+      <c r="K76">
+        <v>305952</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>2140964</v>
+      </c>
+      <c r="O76">
+        <v>2464164</v>
+      </c>
+      <c r="P76">
+        <v>628810</v>
+      </c>
+      <c r="Q76">
+        <v>-34566</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>254983</v>
+      </c>
+      <c r="T76">
+        <v>263215</v>
+      </c>
+      <c r="U76">
+        <v>222538</v>
+      </c>
+      <c r="V76">
+        <v>-13854</v>
+      </c>
+      <c r="W76">
+        <v>-3048</v>
+      </c>
+      <c r="X76">
+        <v>-12966</v>
+      </c>
+      <c r="Y76">
+        <v>7617</v>
+      </c>
+      <c r="Z76">
+        <v>-36286</v>
+      </c>
+      <c r="AA76">
+        <v>9652</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>9080</v>
+      </c>
+      <c r="D77">
+        <v>27777</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>27777</v>
+      </c>
+      <c r="G77">
+        <v>1215608</v>
+      </c>
+      <c r="H77">
+        <v>2764661</v>
+      </c>
+      <c r="I77">
+        <v>1732034</v>
+      </c>
+      <c r="J77">
+        <v>314987</v>
+      </c>
+      <c r="K77">
+        <v>346849</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>2176130</v>
+      </c>
+      <c r="O77">
+        <v>2500313</v>
+      </c>
+      <c r="P77">
+        <v>670261</v>
+      </c>
+      <c r="Q77">
+        <v>-11441</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>257444</v>
+      </c>
+      <c r="T77">
+        <v>264348</v>
+      </c>
+      <c r="U77">
+        <v>209505</v>
+      </c>
+      <c r="V77">
+        <v>16015</v>
+      </c>
+      <c r="W77">
+        <v>-2975</v>
+      </c>
+      <c r="X77">
+        <v>39537</v>
+      </c>
+      <c r="Y77">
+        <v>8031</v>
+      </c>
+      <c r="Z77">
+        <v>-85809</v>
+      </c>
+      <c r="AA77">
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>8520</v>
+      </c>
+      <c r="D78">
+        <v>26857</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>26857</v>
+      </c>
+      <c r="G78">
+        <v>1068584</v>
+      </c>
+      <c r="H78">
+        <v>2687379</v>
+      </c>
+      <c r="I78">
+        <v>1635858</v>
+      </c>
+      <c r="J78">
+        <v>309339</v>
+      </c>
+      <c r="K78">
+        <v>272003</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2108205</v>
+      </c>
+      <c r="O78">
+        <v>2426049</v>
+      </c>
+      <c r="P78">
+        <v>589847</v>
+      </c>
+      <c r="Q78">
+        <v>7034</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>256981</v>
+      </c>
+      <c r="T78">
+        <v>261330</v>
+      </c>
+      <c r="U78">
+        <v>217142</v>
+      </c>
+      <c r="V78">
+        <v>82811</v>
+      </c>
+      <c r="W78">
+        <v>-3287</v>
+      </c>
+      <c r="X78">
+        <v>-63019</v>
+      </c>
+      <c r="Y78">
+        <v>8505</v>
+      </c>
+      <c r="Z78">
+        <v>-4905</v>
+      </c>
+      <c r="AA78">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>2865</v>
+      </c>
+      <c r="D79">
+        <v>19907</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>19907</v>
+      </c>
+      <c r="G79">
+        <v>1399484</v>
+      </c>
+      <c r="H79">
+        <v>3139431</v>
+      </c>
+      <c r="I79">
+        <v>2067645</v>
+      </c>
+      <c r="J79">
+        <v>318974</v>
+      </c>
+      <c r="K79">
+        <v>354303</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-29057</v>
+      </c>
+      <c r="N79">
+        <v>2547757</v>
+      </c>
+      <c r="O79">
+        <v>2878169</v>
+      </c>
+      <c r="P79">
+        <v>681793</v>
+      </c>
+      <c r="Q79">
+        <v>103903</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>256720</v>
+      </c>
+      <c r="T79">
+        <v>261262</v>
+      </c>
+      <c r="U79">
+        <v>344064</v>
+      </c>
+      <c r="V79">
+        <v>-120772</v>
+      </c>
+      <c r="W79">
+        <v>-3188</v>
+      </c>
+      <c r="X79">
+        <v>362305</v>
+      </c>
+      <c r="Y79">
+        <v>8516</v>
+      </c>
+      <c r="Z79">
+        <v>-65801</v>
+      </c>
+      <c r="AA79">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>4687</v>
+      </c>
+      <c r="D80">
+        <v>22507</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>22507</v>
+      </c>
+      <c r="G80">
+        <v>1476556</v>
+      </c>
+      <c r="H80">
+        <v>3213115</v>
+      </c>
+      <c r="I80">
+        <v>2140815</v>
+      </c>
+      <c r="J80">
+        <v>337831</v>
+      </c>
+      <c r="K80">
+        <v>344438</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2600088</v>
+      </c>
+      <c r="O80">
+        <v>2948649</v>
+      </c>
+      <c r="P80">
+        <v>690695</v>
+      </c>
+      <c r="Q80">
+        <v>126195</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>256710</v>
+      </c>
+      <c r="T80">
+        <v>264466</v>
+      </c>
+      <c r="U80">
+        <v>468529</v>
+      </c>
+      <c r="V80">
+        <v>83740</v>
+      </c>
+      <c r="W80">
+        <v>-3154</v>
+      </c>
+      <c r="X80">
+        <v>89131</v>
+      </c>
+      <c r="Y80">
+        <v>8426</v>
+      </c>
+      <c r="Z80">
+        <v>-83144</v>
+      </c>
+      <c r="AA80">
+        <v>4687</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>9443</v>
+      </c>
+      <c r="D81">
+        <v>28536</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>28536</v>
+      </c>
+      <c r="G81">
+        <v>1507840</v>
+      </c>
+      <c r="H81">
+        <v>3246076</v>
+      </c>
+      <c r="I81">
+        <v>2213522</v>
+      </c>
+      <c r="J81">
+        <v>298366</v>
+      </c>
+      <c r="K81">
+        <v>339390</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2665347</v>
+      </c>
+      <c r="O81">
+        <v>2974963</v>
+      </c>
+      <c r="P81">
+        <v>646091</v>
+      </c>
+      <c r="Q81">
+        <v>-6207</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>256358</v>
+      </c>
+      <c r="T81">
+        <v>271113</v>
+      </c>
+      <c r="U81">
+        <v>462822</v>
+      </c>
+      <c r="V81">
+        <v>-14826</v>
+      </c>
+      <c r="W81">
+        <v>-3209</v>
+      </c>
+      <c r="X81">
+        <v>19251</v>
+      </c>
+      <c r="Y81">
+        <v>8335</v>
+      </c>
+      <c r="Z81">
+        <v>27831</v>
+      </c>
+      <c r="AA81">
+        <v>9443</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>12136</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>31113</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
         <v>31113</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>1538408</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>3386071</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>2214536</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>272657</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>334112</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2824737</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>3106717</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>642211</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>40087</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>255351</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>279354</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>503209</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>-28052</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-3139</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>125958</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>6902</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-59638</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>12136</v>
       </c>
     </row>
